--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-chars-top-by-races-count.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-chars-top-by-races-count.xlsx
@@ -50,7 +50,7 @@
     <t>ролд</t>
   </si>
   <si>
-    <t>317 ч. 55 мин. 2 сек.</t>
+    <t>317 ч. 55 мин. 02 сек.</t>
   </si>
   <si>
     <t>2</t>
@@ -59,7 +59,7 @@
     <t>Сима44</t>
   </si>
   <si>
-    <t>363 ч. 7 мин. 28 сек.</t>
+    <t>363 ч. 07 мин. 28 сек.</t>
   </si>
   <si>
     <t>3</t>
@@ -95,7 +95,7 @@
     <t>КлавоЕд</t>
   </si>
   <si>
-    <t>207 ч. 7 мин. 16 сек.</t>
+    <t>207 ч. 07 мин. 16 сек.</t>
   </si>
   <si>
     <t>7</t>
@@ -113,7 +113,7 @@
     <t>albert-</t>
   </si>
   <si>
-    <t>169 ч. 2 мин. 57 сек.</t>
+    <t>169 ч. 02 мин. 57 сек.</t>
   </si>
   <si>
     <t>9</t>
@@ -131,7 +131,7 @@
     <t>Примус_починяю</t>
   </si>
   <si>
-    <t>103 ч. 1 мин. 5 сек.</t>
+    <t>103 ч. 01 мин. 05 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -140,7 +140,7 @@
     <t>sakh10</t>
   </si>
   <si>
-    <t>147 ч. 8 мин. 19 сек.</t>
+    <t>147 ч. 08 мин. 19 сек.</t>
   </si>
   <si>
     <t>12</t>
@@ -176,7 +176,7 @@
     <t>ИльдарВолжский</t>
   </si>
   <si>
-    <t>78 ч. 27 мин. 4 сек.</t>
+    <t>78 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>16</t>
@@ -185,7 +185,7 @@
     <t>Анна_Банановна</t>
   </si>
   <si>
-    <t>79 ч. 6 мин. 53 сек.</t>
+    <t>79 ч. 06 мин. 53 сек.</t>
   </si>
   <si>
     <t>17</t>
@@ -194,7 +194,7 @@
     <t>Аферист</t>
   </si>
   <si>
-    <t>80 ч. 53 мин. 1 сек.</t>
+    <t>80 ч. 53 мин. 01 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -212,7 +212,7 @@
     <t>Maksuta</t>
   </si>
   <si>
-    <t>79 ч. 5 мин. 10 сек.</t>
+    <t>79 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>20</t>
@@ -275,7 +275,7 @@
     <t>nosferatum</t>
   </si>
   <si>
-    <t>55 ч. 1 мин. 23 сек.</t>
+    <t>55 ч. 01 мин. 23 сек.</t>
   </si>
   <si>
     <t>27</t>
@@ -293,7 +293,7 @@
     <t>tarak</t>
   </si>
   <si>
-    <t>69 ч. 13 мин. 6 сек.</t>
+    <t>69 ч. 13 мин. 06 сек.</t>
   </si>
   <si>
     <t>29</t>
@@ -338,7 +338,7 @@
     <t>Static</t>
   </si>
   <si>
-    <t>47 ч. 11 мин. 5 сек.</t>
+    <t>47 ч. 11 мин. 05 сек.</t>
   </si>
   <si>
     <t>34</t>
@@ -365,7 +365,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>49 ч. 0 мин. 29 сек.</t>
+    <t>49 ч. 00 мин. 29 сек.</t>
   </si>
   <si>
     <t>37</t>
@@ -383,7 +383,7 @@
     <t>8ele8</t>
   </si>
   <si>
-    <t>60 ч. 0 мин. 4 сек.</t>
+    <t>60 ч. 00 мин. 04 сек.</t>
   </si>
   <si>
     <t>39</t>
@@ -410,7 +410,7 @@
     <t>kosmos</t>
   </si>
   <si>
-    <t>45 ч. 4 мин. 3 сек.</t>
+    <t>45 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>42</t>
@@ -419,7 +419,7 @@
     <t>a_mikhaylov</t>
   </si>
   <si>
-    <t>40 ч. 11 мин. 0 сек.</t>
+    <t>40 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>43</t>
@@ -428,7 +428,7 @@
     <t>Gorynych</t>
   </si>
   <si>
-    <t>50 ч. 5 мин. 28 сек.</t>
+    <t>50 ч. 05 мин. 28 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -437,7 +437,7 @@
     <t>Катушка</t>
   </si>
   <si>
-    <t>60 ч. 29 мин. 2 сек.</t>
+    <t>60 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>45</t>
@@ -563,7 +563,7 @@
     <t>отлезь_вова</t>
   </si>
   <si>
-    <t>61 ч. 45 мин. 3 сек.</t>
+    <t>61 ч. 45 мин. 03 сек.</t>
   </si>
   <si>
     <t>59</t>
@@ -572,7 +572,7 @@
     <t>InsydeR</t>
   </si>
   <si>
-    <t>43 ч. 48 мин. 0 сек.</t>
+    <t>43 ч. 48 мин. 00 сек.</t>
   </si>
   <si>
     <t>60</t>
@@ -581,7 +581,7 @@
     <t>---SUSanin---</t>
   </si>
   <si>
-    <t>48 ч. 27 мин. 0 сек.</t>
+    <t>48 ч. 27 мин. 00 сек.</t>
   </si>
   <si>
     <t>61</t>
@@ -608,7 +608,7 @@
     <t>yurk</t>
   </si>
   <si>
-    <t>36 ч. 6 мин. 16 сек.</t>
+    <t>36 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>64</t>
@@ -644,7 +644,7 @@
     <t>Чумаходка</t>
   </si>
   <si>
-    <t>54 ч. 1 мин. 58 сек.</t>
+    <t>54 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>68</t>
@@ -662,7 +662,7 @@
     <t>chat</t>
   </si>
   <si>
-    <t>41 ч. 41 мин. 9 сек.</t>
+    <t>41 ч. 41 мин. 09 сек.</t>
   </si>
   <si>
     <t>70</t>
@@ -671,7 +671,7 @@
     <t>AvtandiLine</t>
   </si>
   <si>
-    <t>27 ч. 56 мин. 1 сек.</t>
+    <t>27 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>71</t>
@@ -689,7 +689,7 @@
     <t>Viktor_Animal</t>
   </si>
   <si>
-    <t>32 ч. 56 мин. 1 сек.</t>
+    <t>32 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>73</t>
@@ -716,7 +716,7 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>33 ч. 42 мин. 3 сек.</t>
+    <t>33 ч. 42 мин. 03 сек.</t>
   </si>
   <si>
     <t>76</t>
@@ -734,7 +734,7 @@
     <t>EclipseJDK</t>
   </si>
   <si>
-    <t>43 ч. 30 мин. 2 сек.</t>
+    <t>43 ч. 30 мин. 02 сек.</t>
   </si>
   <si>
     <t>78</t>
@@ -752,7 +752,7 @@
     <t>alanen</t>
   </si>
   <si>
-    <t>33 ч. 6 мин. 47 сек.</t>
+    <t>33 ч. 06 мин. 47 сек.</t>
   </si>
   <si>
     <t>80</t>
@@ -821,7 +821,7 @@
     <t>оно</t>
   </si>
   <si>
-    <t>23 ч. 5 мин. 18 сек.</t>
+    <t>23 ч. 05 мин. 18 сек.</t>
   </si>
   <si>
     <t>88</t>
@@ -839,7 +839,7 @@
     <t>ancv2000</t>
   </si>
   <si>
-    <t>25 ч. 8 мин. 38 сек.</t>
+    <t>25 ч. 08 мин. 38 сек.</t>
   </si>
   <si>
     <t>90</t>
@@ -884,7 +884,7 @@
     <t>velsher123</t>
   </si>
   <si>
-    <t>39 ч. 22 мин. 7 сек.</t>
+    <t>39 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>95</t>
@@ -911,7 +911,7 @@
     <t>carmero</t>
   </si>
   <si>
-    <t>31 ч. 26 мин. 8 сек.</t>
+    <t>31 ч. 26 мин. 08 сек.</t>
   </si>
   <si>
     <t>98</t>
@@ -929,7 +929,7 @@
     <t>Dim37</t>
   </si>
   <si>
-    <t>28 ч. 7 мин. 39 сек.</t>
+    <t>28 ч. 07 мин. 39 сек.</t>
   </si>
   <si>
     <t>sbox</t>
@@ -944,7 +944,7 @@
     <t>prostoe</t>
   </si>
   <si>
-    <t>36 ч. 24 мин. 7 сек.</t>
+    <t>36 ч. 24 мин. 07 сек.</t>
   </si>
   <si>
     <t>102</t>
@@ -953,7 +953,7 @@
     <t>DenL</t>
   </si>
   <si>
-    <t>30 ч. 52 мин. 0 сек.</t>
+    <t>30 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>103</t>
@@ -962,7 +962,7 @@
     <t>Алина_</t>
   </si>
   <si>
-    <t>27 ч. 48 мин. 3 сек.</t>
+    <t>27 ч. 48 мин. 03 сек.</t>
   </si>
   <si>
     <t>104</t>
@@ -1016,7 +1016,7 @@
     <t>Никсон</t>
   </si>
   <si>
-    <t>31 ч. 4 мин. 11 сек.</t>
+    <t>31 ч. 04 мин. 11 сек.</t>
   </si>
   <si>
     <t>110</t>
@@ -1052,7 +1052,7 @@
     <t>EVERGLOW</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 33 сек.</t>
+    <t>17 ч. 04 мин. 33 сек.</t>
   </si>
   <si>
     <t>114</t>
@@ -1088,7 +1088,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>28 ч. 16 мин. 8 сек.</t>
+    <t>28 ч. 16 мин. 08 сек.</t>
   </si>
   <si>
     <t>118</t>
@@ -1115,7 +1115,7 @@
     <t>Pisaka</t>
   </si>
   <si>
-    <t>23 ч. 20 мин. 6 сек.</t>
+    <t>23 ч. 20 мин. 06 сек.</t>
   </si>
   <si>
     <t>121</t>
@@ -1142,7 +1142,7 @@
     <t>LightStorm</t>
   </si>
   <si>
-    <t>28 ч. 5 мин. 19 сек.</t>
+    <t>28 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>124</t>
@@ -1160,7 +1160,7 @@
     <t>VanDyk</t>
   </si>
   <si>
-    <t>21 ч. 9 мин. 2 сек.</t>
+    <t>21 ч. 09 мин. 02 сек.</t>
   </si>
   <si>
     <t>126</t>
@@ -1169,7 +1169,7 @@
     <t>Nick950</t>
   </si>
   <si>
-    <t>26 ч. 48 мин. 2 сек.</t>
+    <t>26 ч. 48 мин. 02 сек.</t>
   </si>
   <si>
     <t>127</t>
@@ -1196,7 +1196,7 @@
     <t>лаоцзы</t>
   </si>
   <si>
-    <t>28 ч. 32 мин. 6 сек.</t>
+    <t>28 ч. 32 мин. 06 сек.</t>
   </si>
   <si>
     <t>130</t>
@@ -1214,7 +1214,7 @@
     <t>РуссоТуристо</t>
   </si>
   <si>
-    <t>26 ч. 54 мин. 1 сек.</t>
+    <t>26 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>132</t>
@@ -1256,7 +1256,7 @@
     <t>Davydoff</t>
   </si>
   <si>
-    <t>20 ч. 8 мин. 8 сек.</t>
+    <t>20 ч. 08 мин. 08 сек.</t>
   </si>
   <si>
     <t>137</t>
@@ -1274,7 +1274,7 @@
     <t>Fostal</t>
   </si>
   <si>
-    <t>24 ч. 21 мин. 3 сек.</t>
+    <t>24 ч. 21 мин. 03 сек.</t>
   </si>
   <si>
     <t>139</t>
@@ -1301,7 +1301,7 @@
     <t>WWW</t>
   </si>
   <si>
-    <t>20 ч. 5 мин. 32 сек.</t>
+    <t>20 ч. 05 мин. 32 сек.</t>
   </si>
   <si>
     <t>142</t>
@@ -1310,7 +1310,7 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>32 ч. 8 мин. 47 сек.</t>
+    <t>32 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>143</t>
@@ -1364,7 +1364,7 @@
     <t>igormsu</t>
   </si>
   <si>
-    <t>18 ч. 49 мин. 2 сек.</t>
+    <t>18 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>149</t>
@@ -1373,7 +1373,7 @@
     <t>Руна</t>
   </si>
   <si>
-    <t>29 ч. 23 мин. 7 сек.</t>
+    <t>29 ч. 23 мин. 07 сек.</t>
   </si>
   <si>
     <t>150</t>
@@ -1391,13 +1391,13 @@
     <t>Easy88</t>
   </si>
   <si>
-    <t>21 ч. 9 мин. 52 сек.</t>
+    <t>21 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>Pipl</t>
   </si>
   <si>
-    <t>21 ч. 9 мин. 23 сек.</t>
+    <t>21 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>153</t>
@@ -1433,13 +1433,13 @@
     <t>Графит</t>
   </si>
   <si>
-    <t>33 ч. 1 мин. 1 сек.</t>
+    <t>33 ч. 01 мин. 01 сек.</t>
   </si>
   <si>
     <t>ТрупОдиночка</t>
   </si>
   <si>
-    <t>18 ч. 8 мин. 17 сек.</t>
+    <t>18 ч. 08 мин. 17 сек.</t>
   </si>
   <si>
     <t>158</t>
@@ -1448,7 +1448,7 @@
     <t>Азиат</t>
   </si>
   <si>
-    <t>24 ч. 21 мин. 5 сек.</t>
+    <t>24 ч. 21 мин. 05 сек.</t>
   </si>
   <si>
     <t>159</t>
@@ -1457,7 +1457,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>24 ч. 16 мин. 4 сек.</t>
+    <t>24 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>160</t>
@@ -1493,7 +1493,7 @@
     <t>DietrichDeurt</t>
   </si>
   <si>
-    <t>23 ч. 2 мин. 1 сек.</t>
+    <t>23 ч. 02 мин. 01 сек.</t>
   </si>
   <si>
     <t>164</t>
@@ -1520,7 +1520,7 @@
     <t>_sorriso_</t>
   </si>
   <si>
-    <t>21 ч. 26 мин. 2 сек.</t>
+    <t>21 ч. 26 мин. 02 сек.</t>
   </si>
   <si>
     <t>167</t>
@@ -1538,7 +1538,7 @@
     <t>HeLLios</t>
   </si>
   <si>
-    <t>17 ч. 32 мин. 0 сек.</t>
+    <t>17 ч. 32 мин. 00 сек.</t>
   </si>
   <si>
     <t>169</t>
@@ -1619,7 +1619,7 @@
     <t>шамик</t>
   </si>
   <si>
-    <t>26 ч. 30 мин. 9 сек.</t>
+    <t>26 ч. 30 мин. 09 сек.</t>
   </si>
   <si>
     <t>178</t>
@@ -1646,7 +1646,7 @@
     <t>Башмак</t>
   </si>
   <si>
-    <t>17 ч. 2 мин. 41 сек.</t>
+    <t>17 ч. 02 мин. 41 сек.</t>
   </si>
   <si>
     <t>181</t>
@@ -1664,7 +1664,7 @@
     <t>wizmon</t>
   </si>
   <si>
-    <t>20 ч. 4 мин. 9 сек.</t>
+    <t>20 ч. 04 мин. 09 сек.</t>
   </si>
   <si>
     <t>183</t>
@@ -1673,7 +1673,7 @@
     <t>UPO</t>
   </si>
   <si>
-    <t>17 ч. 1 мин. 45 сек.</t>
+    <t>17 ч. 01 мин. 45 сек.</t>
   </si>
   <si>
     <t>184</t>
@@ -1682,7 +1682,7 @@
     <t>Аленка</t>
   </si>
   <si>
-    <t>15 ч. 0 мин. 32 сек.</t>
+    <t>15 ч. 00 мин. 32 сек.</t>
   </si>
   <si>
     <t>185</t>
@@ -1700,7 +1700,7 @@
     <t>svetophor</t>
   </si>
   <si>
-    <t>32 ч. 21 мин. 2 сек.</t>
+    <t>32 ч. 21 мин. 02 сек.</t>
   </si>
   <si>
     <t>187</t>
@@ -1709,7 +1709,7 @@
     <t>Gosxo_Ruza</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 3 сек.</t>
+    <t>22 ч. 08 мин. 03 сек.</t>
   </si>
   <si>
     <t>188</t>
@@ -1754,7 +1754,7 @@
     <t>Стивочка</t>
   </si>
   <si>
-    <t>14 ч. 57 мин. 7 сек.</t>
+    <t>14 ч. 57 мин. 07 сек.</t>
   </si>
   <si>
     <t>193</t>
@@ -1772,7 +1772,7 @@
     <t>tfn3k</t>
   </si>
   <si>
-    <t>18 ч. 3 мин. 25 сек.</t>
+    <t>18 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>195</t>
@@ -1781,7 +1781,7 @@
     <t>dmitriy156</t>
   </si>
   <si>
-    <t>26 ч. 58 мин. 9 сек.</t>
+    <t>26 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>196</t>
@@ -1826,7 +1826,7 @@
     <t>ПЕРЖО</t>
   </si>
   <si>
-    <t>13 ч. 42 мин. 7 сек.</t>
+    <t>13 ч. 42 мин. 07 сек.</t>
   </si>
   <si>
     <t>201</t>
@@ -1886,7 +1886,7 @@
     <t>Dany</t>
   </si>
   <si>
-    <t>20 ч. 11 мин. 9 сек.</t>
+    <t>20 ч. 11 мин. 09 сек.</t>
   </si>
   <si>
     <t>208</t>
@@ -1895,7 +1895,7 @@
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>12 ч. 30 мин. 5 сек.</t>
+    <t>12 ч. 30 мин. 05 сек.</t>
   </si>
   <si>
     <t>209</t>
@@ -1904,7 +1904,7 @@
     <t>Pelagiad</t>
   </si>
   <si>
-    <t>11 ч. 59 мин. 5 сек.</t>
+    <t>11 ч. 59 мин. 05 сек.</t>
   </si>
   <si>
     <t>210</t>
@@ -1955,7 +1955,7 @@
     <t>наждак</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 23 сек.</t>
+    <t>21 ч. 03 мин. 23 сек.</t>
   </si>
   <si>
     <t>216</t>
@@ -1982,7 +1982,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>17 ч. 1 мин. 15 сек.</t>
+    <t>17 ч. 01 мин. 15 сек.</t>
   </si>
   <si>
     <t>219</t>
@@ -2009,13 +2009,13 @@
     <t>Mask2017</t>
   </si>
   <si>
-    <t>20 ч. 9 мин. 15 сек.</t>
+    <t>20 ч. 09 мин. 15 сек.</t>
   </si>
   <si>
     <t>citello</t>
   </si>
   <si>
-    <t>25 ч. 23 мин. 1 сек.</t>
+    <t>25 ч. 23 мин. 01 сек.</t>
   </si>
   <si>
     <t>lChi</t>
@@ -2039,7 +2039,7 @@
     <t>Игрок3</t>
   </si>
   <si>
-    <t>15 ч. 38 мин. 4 сек.</t>
+    <t>15 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>226</t>
@@ -2057,7 +2057,7 @@
     <t>Falster</t>
   </si>
   <si>
-    <t>13 ч. 10 мин. 3 сек.</t>
+    <t>13 ч. 10 мин. 03 сек.</t>
   </si>
   <si>
     <t>228</t>
@@ -2138,7 +2138,7 @@
     <t>_nikki_</t>
   </si>
   <si>
-    <t>14 ч. 8 мин. 55 сек.</t>
+    <t>14 ч. 08 мин. 55 сек.</t>
   </si>
   <si>
     <t>237</t>
@@ -2333,7 +2333,7 @@
     <t>Dencom</t>
   </si>
   <si>
-    <t>12 ч. 52 мин. 9 сек.</t>
+    <t>12 ч. 52 мин. 09 сек.</t>
   </si>
   <si>
     <t>259</t>
@@ -2342,7 +2342,7 @@
     <t>Vanchez</t>
   </si>
   <si>
-    <t>13 ч. 44 мин. 4 сек.</t>
+    <t>13 ч. 44 мин. 04 сек.</t>
   </si>
   <si>
     <t>260</t>
@@ -2351,7 +2351,7 @@
     <t>Irlani</t>
   </si>
   <si>
-    <t>13 ч. 5 мин. 9 сек.</t>
+    <t>13 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>261</t>
@@ -2396,7 +2396,7 @@
     <t>_XimiquE_</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 0 сек.</t>
+    <t>10 ч. 01 мин. 00 сек.</t>
   </si>
   <si>
     <t>anomura</t>
@@ -2411,7 +2411,7 @@
     <t>Миша-Буденновск</t>
   </si>
   <si>
-    <t>14 ч. 58 мин. 8 сек.</t>
+    <t>14 ч. 58 мин. 08 сек.</t>
   </si>
   <si>
     <t>268</t>
@@ -2438,7 +2438,7 @@
     <t>сварщик</t>
   </si>
   <si>
-    <t>12 ч. 1 мин. 45 сек.</t>
+    <t>12 ч. 01 мин. 45 сек.</t>
   </si>
   <si>
     <t>271</t>
@@ -2489,7 +2489,7 @@
     <t>name1</t>
   </si>
   <si>
-    <t>13 ч. 13 мин. 7 сек.</t>
+    <t>13 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>277</t>
@@ -2525,7 +2525,7 @@
     <t>Кинолог</t>
   </si>
   <si>
-    <t>8 ч. 43 мин. 5 сек.</t>
+    <t>8 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>281</t>
@@ -2552,7 +2552,7 @@
     <t>Обгоняша</t>
   </si>
   <si>
-    <t>11 ч. 5 мин. 15 сек.</t>
+    <t>11 ч. 05 мин. 15 сек.</t>
   </si>
   <si>
     <t>284–285</t>
@@ -2561,7 +2561,7 @@
     <t>Ghost-Rider</t>
   </si>
   <si>
-    <t>14 ч. 43 мин. 1 сек.</t>
+    <t>14 ч. 43 мин. 01 сек.</t>
   </si>
   <si>
     <t>Chel_87</t>
@@ -2576,7 +2576,7 @@
     <t>KeyCRACKer</t>
   </si>
   <si>
-    <t>8 ч. 41 мин. 0 сек.</t>
+    <t>8 ч. 41 мин. 00 сек.</t>
   </si>
   <si>
     <t>287</t>
@@ -2618,7 +2618,7 @@
     <t>kageneko</t>
   </si>
   <si>
-    <t>16 ч. 2 мин. 17 сек.</t>
+    <t>16 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>292</t>
@@ -2627,7 +2627,7 @@
     <t>olaolg</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 39 сек.</t>
+    <t>13 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>293</t>
@@ -2636,7 +2636,7 @@
     <t>gosha_bel</t>
   </si>
   <si>
-    <t>11 ч. 23 мин. 0 сек.</t>
+    <t>11 ч. 23 мин. 00 сек.</t>
   </si>
   <si>
     <t>294</t>
@@ -2645,7 +2645,7 @@
     <t>tanf93</t>
   </si>
   <si>
-    <t>12 ч. 5 мин. 9 сек.</t>
+    <t>12 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>295</t>
@@ -2654,7 +2654,7 @@
     <t>Hovga</t>
   </si>
   <si>
-    <t>9 ч. 2 мин. 3 сек.</t>
+    <t>9 ч. 02 мин. 03 сек.</t>
   </si>
   <si>
     <t>296–297</t>
@@ -2747,7 +2747,7 @@
     <t>Ш0ТАМ</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 57 сек.</t>
+    <t>9 ч. 05 мин. 57 сек.</t>
   </si>
   <si>
     <t>307</t>
@@ -2756,7 +2756,7 @@
     <t>дядя_Паша</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 35 сек.</t>
+    <t>9 ч. 09 мин. 35 сек.</t>
   </si>
   <si>
     <t>308</t>
@@ -2792,7 +2792,7 @@
     <t>x1shn1k</t>
   </si>
   <si>
-    <t>12 ч. 55 мин. 5 сек.</t>
+    <t>12 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>312</t>
@@ -2810,7 +2810,7 @@
     <t>Klume</t>
   </si>
   <si>
-    <t>20 ч. 9 мин. 44 сек.</t>
+    <t>20 ч. 09 мин. 44 сек.</t>
   </si>
   <si>
     <t>314</t>
@@ -2828,7 +2828,7 @@
     <t>-Wanted-</t>
   </si>
   <si>
-    <t>8 ч. 14 мин. 3 сек.</t>
+    <t>8 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>tinto</t>
@@ -2843,13 +2843,13 @@
     <t>RoaKoth</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 6 сек.</t>
+    <t>7 ч. 08 мин. 06 сек.</t>
   </si>
   <si>
     <t>инфо-пчелы</t>
   </si>
   <si>
-    <t>12 ч. 2 мин. 53 сек.</t>
+    <t>12 ч. 02 мин. 53 сек.</t>
   </si>
   <si>
     <t>319</t>
@@ -2858,7 +2858,7 @@
     <t>TJuggernaut</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 33 сек.</t>
+    <t>8 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>320–321</t>
@@ -2897,7 +2897,7 @@
     <t>Kot_letun</t>
   </si>
   <si>
-    <t>11 ч. 5 мин. 50 сек.</t>
+    <t>11 ч. 05 мин. 50 сек.</t>
   </si>
   <si>
     <t>325–326</t>
@@ -2906,13 +2906,13 @@
     <t>Smuglik</t>
   </si>
   <si>
-    <t>11 ч. 23 мин. 5 сек.</t>
+    <t>11 ч. 23 мин. 05 сек.</t>
   </si>
   <si>
     <t>Ваньсон</t>
   </si>
   <si>
-    <t>8 ч. 12 мин. 5 сек.</t>
+    <t>8 ч. 12 мин. 05 сек.</t>
   </si>
   <si>
     <t>327</t>
@@ -2948,7 +2948,7 @@
     <t>r0undabout</t>
   </si>
   <si>
-    <t>12 ч. 39 мин. 6 сек.</t>
+    <t>12 ч. 39 мин. 06 сек.</t>
   </si>
   <si>
     <t>331</t>
@@ -2966,7 +2966,7 @@
     <t>Bolot</t>
   </si>
   <si>
-    <t>9 ч. 6 мин. 38 сек.</t>
+    <t>9 ч. 06 мин. 38 сек.</t>
   </si>
   <si>
     <t>333</t>
@@ -3002,7 +3002,7 @@
     <t>вовик58</t>
   </si>
   <si>
-    <t>14 ч. 25 мин. 1 сек.</t>
+    <t>14 ч. 25 мин. 01 сек.</t>
   </si>
   <si>
     <t>337</t>
@@ -3011,7 +3011,7 @@
     <t>WarroR</t>
   </si>
   <si>
-    <t>16 ч. 52 мин. 8 сек.</t>
+    <t>16 ч. 52 мин. 08 сек.</t>
   </si>
   <si>
     <t>338</t>
@@ -3029,13 +3029,13 @@
     <t>m9_AZ</t>
   </si>
   <si>
-    <t>8 ч. 9 мин. 14 сек.</t>
+    <t>8 ч. 09 мин. 14 сек.</t>
   </si>
   <si>
     <t>m9so88</t>
   </si>
   <si>
-    <t>9 ч. 0 мин. 48 сек.</t>
+    <t>9 ч. 00 мин. 48 сек.</t>
   </si>
   <si>
     <t>341</t>
@@ -3053,7 +3053,7 @@
     <t>Креслоноцец</t>
   </si>
   <si>
-    <t>17 ч. 2 мин. 53 сек.</t>
+    <t>17 ч. 02 мин. 53 сек.</t>
   </si>
   <si>
     <t>343</t>
@@ -3062,7 +3062,7 @@
     <t>Defaul</t>
   </si>
   <si>
-    <t>10 ч. 6 мин. 6 сек.</t>
+    <t>10 ч. 06 мин. 06 сек.</t>
   </si>
   <si>
     <t>344</t>
@@ -3080,7 +3080,7 @@
     <t>dverg</t>
   </si>
   <si>
-    <t>9 ч. 39 мин. 1 сек.</t>
+    <t>9 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>346</t>
@@ -3089,7 +3089,7 @@
     <t>slaker22</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 16 сек.</t>
+    <t>13 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>347</t>
@@ -3098,7 +3098,7 @@
     <t>AlViNic</t>
   </si>
   <si>
-    <t>18 ч. 6 мин. 56 сек.</t>
+    <t>18 ч. 06 мин. 56 сек.</t>
   </si>
   <si>
     <t>348</t>
@@ -3107,7 +3107,7 @@
     <t>BeTka</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 19 сек.</t>
+    <t>11 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>349</t>
@@ -3152,7 +3152,7 @@
     <t>Wassjaja</t>
   </si>
   <si>
-    <t>10 ч. 7 мин. 42 сек.</t>
+    <t>10 ч. 07 мин. 42 сек.</t>
   </si>
   <si>
     <t>354</t>
@@ -3161,7 +3161,7 @@
     <t>die-hard</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 4 сек.</t>
+    <t>10 ч. 04 мин. 04 сек.</t>
   </si>
   <si>
     <t>355</t>
@@ -3170,7 +3170,7 @@
     <t>tyrpyr</t>
   </si>
   <si>
-    <t>11 ч. 13 мин. 5 сек.</t>
+    <t>11 ч. 13 мин. 05 сек.</t>
   </si>
   <si>
     <t>356</t>
@@ -3179,7 +3179,7 @@
     <t>отпросился</t>
   </si>
   <si>
-    <t>9 ч. 49 мин. 9 сек.</t>
+    <t>9 ч. 49 мин. 09 сек.</t>
   </si>
   <si>
     <t>357–358</t>
@@ -3188,7 +3188,7 @@
     <t>oqiwue</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 32 сек.</t>
+    <t>6 ч. 03 мин. 32 сек.</t>
   </si>
   <si>
     <t>Engi</t>
@@ -3239,7 +3239,7 @@
     <t>wheeeL</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 44 сек.</t>
+    <t>10 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>364</t>
@@ -3248,7 +3248,7 @@
     <t>МсМотя</t>
   </si>
   <si>
-    <t>7 ч. 39 мин. 0 сек.</t>
+    <t>7 ч. 39 мин. 00 сек.</t>
   </si>
   <si>
     <t>365</t>
@@ -3266,7 +3266,7 @@
     <t>ITur</t>
   </si>
   <si>
-    <t>9 ч. 0 мин. 32 сек.</t>
+    <t>9 ч. 00 мин. 32 сек.</t>
   </si>
   <si>
     <t>367</t>
@@ -3314,7 +3314,7 @@
     <t>Insane_Grinder</t>
   </si>
   <si>
-    <t>10 ч. 43 мин. 1 сек.</t>
+    <t>10 ч. 43 мин. 01 сек.</t>
   </si>
   <si>
     <t>373–374</t>
@@ -3416,7 +3416,7 @@
     <t>and_ReY_88</t>
   </si>
   <si>
-    <t>9 ч. 14 мин. 6 сек.</t>
+    <t>9 ч. 14 мин. 06 сек.</t>
   </si>
   <si>
     <t>385</t>
@@ -3434,7 +3434,7 @@
     <t>ржавый_камаз</t>
   </si>
   <si>
-    <t>10 ч. 5 мин. 46 сек.</t>
+    <t>10 ч. 05 мин. 46 сек.</t>
   </si>
   <si>
     <t>387–388</t>
@@ -3467,7 +3467,7 @@
     <t>boOm</t>
   </si>
   <si>
-    <t>10 ч. 5 мин. 41 сек.</t>
+    <t>10 ч. 05 мин. 41 сек.</t>
   </si>
   <si>
     <t>391</t>
@@ -3476,7 +3476,7 @@
     <t>KuzYur</t>
   </si>
   <si>
-    <t>9 ч. 26 мин. 4 сек.</t>
+    <t>9 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>392–393</t>
@@ -3536,7 +3536,7 @@
     <t>БукваА</t>
   </si>
   <si>
-    <t>7 ч. 44 мин. 5 сек.</t>
+    <t>7 ч. 44 мин. 05 сек.</t>
   </si>
   <si>
     <t>399</t>
@@ -3545,7 +3545,7 @@
     <t>a_inc</t>
   </si>
   <si>
-    <t>14 ч. 8 мин. 27 сек.</t>
+    <t>14 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>400–401</t>
@@ -3560,7 +3560,7 @@
     <t>gorvin</t>
   </si>
   <si>
-    <t>11 ч. 13 мин. 7 сек.</t>
+    <t>11 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>402</t>
@@ -3596,7 +3596,7 @@
     <t>DarkStar76</t>
   </si>
   <si>
-    <t>7 ч. 33 мин. 5 сек.</t>
+    <t>7 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>qsort</t>
@@ -3674,7 +3674,7 @@
     <t>bosuy</t>
   </si>
   <si>
-    <t>11 ч. 16 мин. 6 сек.</t>
+    <t>11 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>415</t>
@@ -3692,7 +3692,7 @@
     <t>IIgora</t>
   </si>
   <si>
-    <t>15 ч. 0 мин. 4 сек.</t>
+    <t>15 ч. 00 мин. 04 сек.</t>
   </si>
   <si>
     <t>417–419</t>
@@ -3701,7 +3701,7 @@
     <t>Cotzi</t>
   </si>
   <si>
-    <t>11 ч. 24 мин. 5 сек.</t>
+    <t>11 ч. 24 мин. 05 сек.</t>
   </si>
   <si>
     <t>Banzai7</t>
@@ -3746,7 +3746,7 @@
     <t>Outofshape</t>
   </si>
   <si>
-    <t>10 ч. 46 мин. 0 сек.</t>
+    <t>10 ч. 46 мин. 00 сек.</t>
   </si>
   <si>
     <t>424–425</t>
@@ -3770,7 +3770,7 @@
     <t>Супербармен</t>
   </si>
   <si>
-    <t>8 ч. 43 мин. 0 сек.</t>
+    <t>8 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>427</t>
@@ -3863,7 +3863,7 @@
     <t>grevgen</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 20 сек.</t>
+    <t>9 ч. 01 мин. 20 сек.</t>
   </si>
   <si>
     <t>438</t>
@@ -3872,7 +3872,7 @@
     <t>вазовик</t>
   </si>
   <si>
-    <t>9 ч. 26 мин. 2 сек.</t>
+    <t>9 ч. 26 мин. 02 сек.</t>
   </si>
   <si>
     <t>439</t>
@@ -3890,7 +3890,7 @@
     <t>элля</t>
   </si>
   <si>
-    <t>7 ч. 34 мин. 6 сек.</t>
+    <t>7 ч. 34 мин. 06 сек.</t>
   </si>
   <si>
     <t>Наконец-то</t>
@@ -3902,7 +3902,7 @@
     <t>Zheka169</t>
   </si>
   <si>
-    <t>9 ч. 40 мин. 6 сек.</t>
+    <t>9 ч. 40 мин. 06 сек.</t>
   </si>
   <si>
     <t>mcl</t>
@@ -3917,7 +3917,7 @@
     <t>iforrest</t>
   </si>
   <si>
-    <t>5 ч. 26 мин. 5 сек.</t>
+    <t>5 ч. 26 мин. 05 сек.</t>
   </si>
   <si>
     <t>445–446</t>
@@ -3950,7 +3950,7 @@
     <t>darkneon</t>
   </si>
   <si>
-    <t>5 ч. 57 мин. 3 сек.</t>
+    <t>5 ч. 57 мин. 03 сек.</t>
   </si>
   <si>
     <t>449–450</t>
@@ -3959,7 +3959,7 @@
     <t>бегущий_ананас</t>
   </si>
   <si>
-    <t>6 ч. 13 мин. 7 сек.</t>
+    <t>6 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>RebeldeWay</t>
@@ -3977,7 +3977,7 @@
     <t>Regent</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 27 сек.</t>
+    <t>8 ч. 03 мин. 27 сек.</t>
   </si>
   <si>
     <t>453</t>
@@ -3995,7 +3995,7 @@
     <t>SamArKin</t>
   </si>
   <si>
-    <t>9 ч. 17 мин. 0 сек.</t>
+    <t>9 ч. 17 мин. 00 сек.</t>
   </si>
   <si>
     <t>455</t>
@@ -4013,7 +4013,7 @@
     <t>kathraine</t>
   </si>
   <si>
-    <t>13 ч. 0 мин. 24 сек.</t>
+    <t>13 ч. 00 мин. 24 сек.</t>
   </si>
   <si>
     <t>457</t>
@@ -4076,7 +4076,7 @@
     <t>Grimpen</t>
   </si>
   <si>
-    <t>6 ч. 23 мин. 3 сек.</t>
+    <t>6 ч. 23 мин. 03 сек.</t>
   </si>
   <si>
     <t>Karven</t>
@@ -4115,7 +4115,7 @@
     <t>iOlga</t>
   </si>
   <si>
-    <t>7 ч. 15 мин. 2 сек.</t>
+    <t>7 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>469–470</t>
@@ -4124,7 +4124,7 @@
     <t>vvoland</t>
   </si>
   <si>
-    <t>9 ч. 2 мин. 17 сек.</t>
+    <t>9 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>Слепой</t>
@@ -4163,7 +4163,7 @@
     <t>Vertex_</t>
   </si>
   <si>
-    <t>5 ч. 15 мин. 9 сек.</t>
+    <t>5 ч. 15 мин. 09 сек.</t>
   </si>
   <si>
     <t>475</t>
@@ -4190,7 +4190,7 @@
     <t>_Daemon_</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 50 сек.</t>
+    <t>6 ч. 02 мин. 50 сек.</t>
   </si>
   <si>
     <t>НЮШКА-ХРЮШКА</t>
@@ -4274,7 +4274,7 @@
     <t>Гира</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 0 сек.</t>
+    <t>8 ч. 08 мин. 00 сек.</t>
   </si>
   <si>
     <t>489</t>
@@ -4283,7 +4283,7 @@
     <t>Luxmaster</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 42 сек.</t>
+    <t>9 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>490–492</t>
@@ -4292,7 +4292,7 @@
     <t>Thousend</t>
   </si>
   <si>
-    <t>11 ч. 7 мин. 3 сек.</t>
+    <t>11 ч. 07 мин. 03 сек.</t>
   </si>
   <si>
     <t>Antokoff</t>
@@ -4304,7 +4304,7 @@
     <t>Шарманщик</t>
   </si>
   <si>
-    <t>8 ч. 7 мин. 2 сек.</t>
+    <t>8 ч. 07 мин. 02 сек.</t>
   </si>
   <si>
     <t>493</t>
@@ -4331,7 +4331,7 @@
     <t>сударь</t>
   </si>
   <si>
-    <t>6 ч. 17 мин. 4 сек.</t>
+    <t>6 ч. 17 мин. 04 сек.</t>
   </si>
   <si>
     <t>496</t>
@@ -4373,7 +4373,7 @@
     <t>KAYFARYK</t>
   </si>
   <si>
-    <t>6 ч. 21 мин. 6 сек.</t>
+    <t>6 ч. 21 мин. 06 сек.</t>
   </si>
   <si>
     <t>501–502</t>
@@ -4382,7 +4382,7 @@
     <t>psst</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 53 сек.</t>
+    <t>5 ч. 07 мин. 53 сек.</t>
   </si>
   <si>
     <t>Voldik</t>
@@ -4397,13 +4397,13 @@
     <t>JIANa</t>
   </si>
   <si>
-    <t>8 ч. 44 мин. 0 сек.</t>
+    <t>8 ч. 44 мин. 00 сек.</t>
   </si>
   <si>
     <t>Предатель</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 13 сек.</t>
+    <t>6 ч. 07 мин. 13 сек.</t>
   </si>
   <si>
     <t>505</t>
@@ -4421,7 +4421,7 @@
     <t>РодионГ</t>
   </si>
   <si>
-    <t>7 ч. 20 мин. 3 сек.</t>
+    <t>7 ч. 20 мин. 03 сек.</t>
   </si>
   <si>
     <t>507</t>
@@ -4439,7 +4439,7 @@
     <t>-777-</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 0 сек.</t>
+    <t>9 ч. 01 мин. 00 сек.</t>
   </si>
   <si>
     <t>509</t>
@@ -4457,7 +4457,7 @@
     <t>asalaga</t>
   </si>
   <si>
-    <t>11 ч. 1 мин. 55 сек.</t>
+    <t>11 ч. 01 мин. 55 сек.</t>
   </si>
   <si>
     <t>511</t>
@@ -4484,7 +4484,7 @@
     <t>Healingproof</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 2 сек.</t>
+    <t>6 ч. 07 мин. 02 сек.</t>
   </si>
   <si>
     <t>514</t>
@@ -4493,7 +4493,7 @@
     <t>200поСкоростной</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 45 сек.</t>
+    <t>6 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>515</t>
@@ -4517,7 +4517,7 @@
     <t>oyasumi</t>
   </si>
   <si>
-    <t>6 ч. 1 мин. 36 сек.</t>
+    <t>6 ч. 01 мин. 36 сек.</t>
   </si>
   <si>
     <t>Квазар</t>
@@ -4550,7 +4550,7 @@
     <t>drDr2</t>
   </si>
   <si>
-    <t>7 ч. 6 мин. 3 сек.</t>
+    <t>7 ч. 06 мин. 03 сек.</t>
   </si>
   <si>
     <t>522–523</t>
@@ -4559,13 +4559,13 @@
     <t>Lyoks</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 25 сек.</t>
+    <t>7 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>petzsch</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 44 сек.</t>
+    <t>5 ч. 07 мин. 44 сек.</t>
   </si>
   <si>
     <t>524</t>
@@ -4589,7 +4589,7 @@
     <t>Slaveniy</t>
   </si>
   <si>
-    <t>8 ч. 39 мин. 1 сек.</t>
+    <t>8 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>527–528</t>
@@ -4637,7 +4637,7 @@
     <t>Galaad</t>
   </si>
   <si>
-    <t>4 ч. 49 мин. 0 сек.</t>
+    <t>4 ч. 49 мин. 00 сек.</t>
   </si>
   <si>
     <t>533–534</t>
@@ -4715,7 +4715,7 @@
     <t>ТыГонишь</t>
   </si>
   <si>
-    <t>9 ч. 30 мин. 5 сек.</t>
+    <t>9 ч. 30 мин. 05 сек.</t>
   </si>
   <si>
     <t>543</t>
@@ -4790,7 +4790,7 @@
     <t>ZeeWaibiar</t>
   </si>
   <si>
-    <t>6 ч. 54 мин. 8 сек.</t>
+    <t>6 ч. 54 мин. 08 сек.</t>
   </si>
   <si>
     <t>552</t>
@@ -4814,7 +4814,7 @@
     <t>Сергуня</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 7 сек.</t>
+    <t>8 ч. 49 мин. 07 сек.</t>
   </si>
   <si>
     <t>555</t>
@@ -4823,7 +4823,7 @@
     <t>dslf</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 7 сек.</t>
+    <t>9 ч. 01 мин. 07 сек.</t>
   </si>
   <si>
     <t>556–558</t>
@@ -4838,13 +4838,13 @@
     <t>Morbid_Angel</t>
   </si>
   <si>
-    <t>6 ч. 1 мин. 46 сек.</t>
+    <t>6 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>hangling</t>
   </si>
   <si>
-    <t>9 ч. 52 мин. 1 сек.</t>
+    <t>9 ч. 52 мин. 01 сек.</t>
   </si>
   <si>
     <t>559</t>
@@ -5021,7 +5021,7 @@
     <t>DOGS</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 53 сек.</t>
+    <t>5 ч. 09 мин. 53 сек.</t>
   </si>
   <si>
     <t>Andre_Macareno</t>
@@ -5036,7 +5036,7 @@
     <t>Корн</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 41 сек.</t>
+    <t>8 ч. 06 мин. 41 сек.</t>
   </si>
   <si>
     <t>583</t>
@@ -5078,7 +5078,7 @@
     <t>Unwear</t>
   </si>
   <si>
-    <t>5 ч. 52 мин. 4 сек.</t>
+    <t>5 ч. 52 мин. 04 сек.</t>
   </si>
   <si>
     <t>588</t>
@@ -5087,7 +5087,7 @@
     <t>oves</t>
   </si>
   <si>
-    <t>6 ч. 29 мин. 7 сек.</t>
+    <t>6 ч. 29 мин. 07 сек.</t>
   </si>
   <si>
     <t>589–591</t>
@@ -5096,7 +5096,7 @@
     <t>vido88</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 44 сек.</t>
+    <t>6 ч. 09 мин. 44 сек.</t>
   </si>
   <si>
     <t>iBumble</t>
@@ -5141,7 +5141,7 @@
     <t>baltun_leo</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 49 сек.</t>
+    <t>8 ч. 00 мин. 49 сек.</t>
   </si>
   <si>
     <t>596</t>
@@ -5159,13 +5159,13 @@
     <t>FreeHugs</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 20 сек.</t>
+    <t>4 ч. 00 мин. 20 сек.</t>
   </si>
   <si>
     <t>Us2s</t>
   </si>
   <si>
-    <t>4 ч. 39 мин. 3 сек.</t>
+    <t>4 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>599</t>
@@ -5174,7 +5174,7 @@
     <t>arch_commander</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 12 сек.</t>
+    <t>6 ч. 05 мин. 12 сек.</t>
   </si>
   <si>
     <t>600–602</t>
@@ -5183,7 +5183,7 @@
     <t>SEFER</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 55 сек.</t>
+    <t>5 ч. 05 мин. 55 сек.</t>
   </si>
   <si>
     <t>ay52_bio</t>
@@ -5213,13 +5213,13 @@
     <t>olimpicano</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 52 сек.</t>
+    <t>7 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>lafit</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 3 сек.</t>
+    <t>5 ч. 21 мин. 03 сек.</t>
   </si>
   <si>
     <t>606</t>
@@ -5255,7 +5255,7 @@
     <t>classifiedman</t>
   </si>
   <si>
-    <t>5 ч. 45 мин. 9 сек.</t>
+    <t>5 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>610</t>
@@ -5291,7 +5291,7 @@
     <t>batton</t>
   </si>
   <si>
-    <t>5 ч. 41 мин. 2 сек.</t>
+    <t>5 ч. 41 мин. 02 сек.</t>
   </si>
   <si>
     <t>614</t>
@@ -5333,7 +5333,7 @@
     <t>BAY</t>
   </si>
   <si>
-    <t>7 ч. 49 мин. 4 сек.</t>
+    <t>7 ч. 49 мин. 04 сек.</t>
   </si>
   <si>
     <t>619</t>
@@ -5360,7 +5360,7 @@
     <t>Gosick</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 59 сек.</t>
+    <t>6 ч. 07 мин. 59 сек.</t>
   </si>
   <si>
     <t>622</t>
@@ -5369,7 +5369,7 @@
     <t>Vadimnecha</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 53 сек.</t>
+    <t>6 ч. 03 мин. 53 сек.</t>
   </si>
   <si>
     <t>623</t>
@@ -5411,7 +5411,7 @@
     <t>ябохтыздох</t>
   </si>
   <si>
-    <t>7 ч. 35 мин. 5 сек.</t>
+    <t>7 ч. 35 мин. 05 сек.</t>
   </si>
   <si>
     <t>628–630</t>
@@ -5426,7 +5426,7 @@
     <t>mishlen79</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 32 сек.</t>
+    <t>5 ч. 01 мин. 32 сек.</t>
   </si>
   <si>
     <t>Deni4</t>
@@ -5450,7 +5450,7 @@
     <t>Jon31</t>
   </si>
   <si>
-    <t>5 ч. 39 мин. 1 сек.</t>
+    <t>5 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>AlbV</t>
@@ -5471,7 +5471,7 @@
     <t>CaTuP</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 6 сек.</t>
+    <t>5 ч. 07 мин. 06 сек.</t>
   </si>
   <si>
     <t>St-Shurik</t>
@@ -5489,7 +5489,7 @@
     <t>Juvman</t>
   </si>
   <si>
-    <t>6 ч. 15 мин. 7 сек.</t>
+    <t>6 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>639–640</t>
@@ -5552,7 +5552,7 @@
     <t>suenot</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 47 сек.</t>
+    <t>6 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>647</t>
@@ -5579,7 +5579,7 @@
     <t>unname</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 49 сек.</t>
+    <t>6 ч. 06 мин. 49 сек.</t>
   </si>
   <si>
     <t>650</t>
@@ -5603,7 +5603,7 @@
     <t>neus</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 11 сек.</t>
+    <t>5 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>653</t>
@@ -5612,7 +5612,7 @@
     <t>zenz</t>
   </si>
   <si>
-    <t>3 ч. 24 мин. 5 сек.</t>
+    <t>3 ч. 24 мин. 05 сек.</t>
   </si>
   <si>
     <t>654</t>
@@ -5621,7 +5621,7 @@
     <t>asergi</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 57 сек.</t>
+    <t>6 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>655</t>
@@ -5639,7 +5639,7 @@
     <t>Demien89</t>
   </si>
   <si>
-    <t>4 ч. 48 мин. 7 сек.</t>
+    <t>4 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>ivanova1789</t>
@@ -5669,7 +5669,7 @@
     <t>клавоинка</t>
   </si>
   <si>
-    <t>6 ч. 34 мин. 8 сек.</t>
+    <t>6 ч. 34 мин. 08 сек.</t>
   </si>
   <si>
     <t>661</t>
@@ -5702,7 +5702,7 @@
     <t>_Сайман_</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 2 сек.</t>
+    <t>4 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>Annabeth</t>
@@ -5738,7 +5738,7 @@
     <t>YaRomashka</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 45 сек.</t>
+    <t>6 ч. 02 мин. 45 сек.</t>
   </si>
   <si>
     <t>Ludimagister</t>
@@ -5750,7 +5750,7 @@
     <t>buzzy</t>
   </si>
   <si>
-    <t>4 ч. 12 мин. 6 сек.</t>
+    <t>4 ч. 12 мин. 06 сек.</t>
   </si>
   <si>
     <t>672–674</t>
@@ -5813,7 +5813,7 @@
     <t>Русинов</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 25 сек.</t>
+    <t>7 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>681</t>
@@ -5831,7 +5831,7 @@
     <t>victorliric</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 31 сек.</t>
+    <t>5 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>683</t>
@@ -5849,7 +5849,7 @@
     <t>Нур-Султан</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 5 сек.</t>
+    <t>4 ч. 56 мин. 05 сек.</t>
   </si>
   <si>
     <t>685</t>
@@ -5858,7 +5858,7 @@
     <t>Крам</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 9 сек.</t>
+    <t>2 ч. 56 мин. 09 сек.</t>
   </si>
   <si>
     <t>686</t>
@@ -5882,7 +5882,7 @@
     <t>Giwwi</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 24 сек.</t>
+    <t>5 ч. 03 мин. 24 сек.</t>
   </si>
   <si>
     <t>689–690</t>
@@ -5906,7 +5906,7 @@
     <t>_Влада_</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 17 сек.</t>
+    <t>7 ч. 01 мин. 17 сек.</t>
   </si>
   <si>
     <t>692–695</t>
@@ -5921,7 +5921,7 @@
     <t>forbatyr</t>
   </si>
   <si>
-    <t>6 ч. 11 мин. 5 сек.</t>
+    <t>6 ч. 11 мин. 05 сек.</t>
   </si>
   <si>
     <t>MadCreator</t>
@@ -5933,7 +5933,7 @@
     <t>Manhunt714</t>
   </si>
   <si>
-    <t>4 ч. 28 мин. 7 сек.</t>
+    <t>4 ч. 28 мин. 07 сек.</t>
   </si>
   <si>
     <t>696–697</t>
@@ -5978,7 +5978,7 @@
     <t>coffee_break</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 11 сек.</t>
+    <t>5 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>strawberries</t>
@@ -6017,7 +6017,7 @@
     <t>Квак</t>
   </si>
   <si>
-    <t>4 ч. 28 мин. 8 сек.</t>
+    <t>4 ч. 28 мин. 08 сек.</t>
   </si>
   <si>
     <t>707–710</t>
@@ -6032,7 +6032,7 @@
     <t>-MONOLITH</t>
   </si>
   <si>
-    <t>5 ч. 25 мин. 5 сек.</t>
+    <t>5 ч. 25 мин. 05 сек.</t>
   </si>
   <si>
     <t>Nowhereman42nd</t>
@@ -6044,7 +6044,7 @@
     <t>Кадий</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 51 сек.</t>
+    <t>4 ч. 02 мин. 51 сек.</t>
   </si>
   <si>
     <t>711</t>
@@ -6062,7 +6062,7 @@
     <t>Еремей</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 57 сек.</t>
+    <t>7 ч. 01 мин. 57 сек.</t>
   </si>
   <si>
     <t>713–716</t>
@@ -6071,7 +6071,7 @@
     <t>Гравий</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 11 сек.</t>
+    <t>4 ч. 05 мин. 11 сек.</t>
   </si>
   <si>
     <t>reddle</t>
@@ -6098,7 +6098,7 @@
     <t>Oxanette</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 9 сек.</t>
+    <t>3 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>718–719</t>
@@ -6122,7 +6122,7 @@
     <t>Эхпрокачуу</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 21 сек.</t>
+    <t>6 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>721</t>
@@ -6149,7 +6149,7 @@
     <t>pewpewpow</t>
   </si>
   <si>
-    <t>4 ч. 35 мин. 8 сек.</t>
+    <t>4 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>Mayflower</t>
@@ -6176,7 +6176,7 @@
     <t>Vohel</t>
   </si>
   <si>
-    <t>6 ч. 38 мин. 5 сек.</t>
+    <t>6 ч. 38 мин. 05 сек.</t>
   </si>
   <si>
     <t>728–730</t>
@@ -6203,7 +6203,7 @@
     <t>daktule</t>
   </si>
   <si>
-    <t>6 ч. 12 мин. 8 сек.</t>
+    <t>6 ч. 12 мин. 08 сек.</t>
   </si>
   <si>
     <t>Enkorn</t>
@@ -6218,7 +6218,7 @@
     <t>seeker_</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 20 сек.</t>
+    <t>3 ч. 06 мин. 20 сек.</t>
   </si>
   <si>
     <t>734–735</t>
@@ -6266,13 +6266,13 @@
     <t>VladimirZhirov</t>
   </si>
   <si>
-    <t>5 ч. 51 мин. 3 сек.</t>
+    <t>5 ч. 51 мин. 03 сек.</t>
   </si>
   <si>
     <t>SnalM</t>
   </si>
   <si>
-    <t>5 ч. 36 мин. 4 сек.</t>
+    <t>5 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>741–742</t>
@@ -6281,7 +6281,7 @@
     <t>_-Shadow-_</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 34 сек.</t>
+    <t>4 ч. 00 мин. 34 сек.</t>
   </si>
   <si>
     <t>Azuzu</t>
@@ -6296,7 +6296,7 @@
     <t>младенец</t>
   </si>
   <si>
-    <t>6 ч. 36 мин. 0 сек.</t>
+    <t>6 ч. 36 мин. 00 сек.</t>
   </si>
   <si>
     <t>744</t>
@@ -6305,7 +6305,7 @@
     <t>lampard108</t>
   </si>
   <si>
-    <t>4 ч. 41 мин. 2 сек.</t>
+    <t>4 ч. 41 мин. 02 сек.</t>
   </si>
   <si>
     <t>745–746</t>
@@ -6344,7 +6344,7 @@
     <t>Мамай_Папай</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 0 сек.</t>
+    <t>5 ч. 21 мин. 00 сек.</t>
   </si>
   <si>
     <t>Конюх</t>
@@ -6386,7 +6386,7 @@
     <t>yog321</t>
   </si>
   <si>
-    <t>5 ч. 49 мин. 5 сек.</t>
+    <t>5 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>756–757</t>
@@ -6425,7 +6425,7 @@
     <t>atikin88</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 44 сек.</t>
+    <t>5 ч. 02 мин. 44 сек.</t>
   </si>
   <si>
     <t>Espera</t>
@@ -6506,7 +6506,7 @@
     <t>HappyHardcore</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 13 сек.</t>
+    <t>5 ч. 07 мин. 13 сек.</t>
   </si>
   <si>
     <t>772–775</t>
@@ -6527,7 +6527,7 @@
     <t>kryto</t>
   </si>
   <si>
-    <t>4 ч. 49 мин. 4 сек.</t>
+    <t>4 ч. 49 мин. 04 сек.</t>
   </si>
   <si>
     <t>Vovaldo</t>
@@ -6542,7 +6542,7 @@
     <t>Adronab</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 58 сек.</t>
+    <t>14 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>Всего_хорошего</t>
@@ -6578,7 +6578,7 @@
     <t>Минералка</t>
   </si>
   <si>
-    <t>5 ч. 40 мин. 5 сек.</t>
+    <t>5 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>782</t>
@@ -6587,7 +6587,7 @@
     <t>Atljh0987</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 16 сек.</t>
+    <t>6 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>783</t>
@@ -6650,7 +6650,7 @@
     <t>Squirr</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 6 сек.</t>
+    <t>4 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>791</t>
@@ -6668,13 +6668,13 @@
     <t>zeliks</t>
   </si>
   <si>
-    <t>6 ч. 19 мин. 2 сек.</t>
+    <t>6 ч. 19 мин. 02 сек.</t>
   </si>
   <si>
     <t>gaintsev</t>
   </si>
   <si>
-    <t>3 ч. 56 мин. 9 сек.</t>
+    <t>3 ч. 56 мин. 09 сек.</t>
   </si>
   <si>
     <t>xallex</t>
@@ -6686,7 +6686,7 @@
     <t>BRATKONDRAT</t>
   </si>
   <si>
-    <t>4 ч. 19 мин. 2 сек.</t>
+    <t>4 ч. 19 мин. 02 сек.</t>
   </si>
   <si>
     <t>796</t>
@@ -6743,7 +6743,7 @@
     <t>Shivo</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 7 сек.</t>
+    <t>5 ч. 01 мин. 07 сек.</t>
   </si>
   <si>
     <t>803</t>
@@ -6782,13 +6782,13 @@
     <t>Катря</t>
   </si>
   <si>
-    <t>7 ч. 30 мин. 8 сек.</t>
+    <t>7 ч. 30 мин. 08 сек.</t>
   </si>
   <si>
     <t>Макрушин</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 57 сек.</t>
+    <t>3 ч. 05 мин. 57 сек.</t>
   </si>
   <si>
     <t>809</t>
@@ -6812,7 +6812,7 @@
     <t>AnArda</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 42 сек.</t>
+    <t>6 ч. 09 мин. 42 сек.</t>
   </si>
   <si>
     <t>812–816</t>
@@ -6821,13 +6821,13 @@
     <t>Nik70</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 20 сек.</t>
+    <t>8 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>Ilya666</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 55 сек.</t>
+    <t>4 ч. 09 мин. 55 сек.</t>
   </si>
   <si>
     <t>нерд</t>
@@ -6860,7 +6860,7 @@
     <t>freia</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 10 сек.</t>
+    <t>4 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>819–820</t>
@@ -6908,7 +6908,7 @@
     <t>Хаотический</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 25 сек.</t>
+    <t>4 ч. 09 мин. 25 сек.</t>
   </si>
   <si>
     <t>LeBron</t>
@@ -6938,13 +6938,13 @@
     <t>zewz</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 36 сек.</t>
+    <t>5 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>menoxe</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 45 сек.</t>
+    <t>5 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>831–834</t>
@@ -7028,7 +7028,7 @@
     <t>Скороход</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 5 сек.</t>
+    <t>5 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>842–844</t>
@@ -7049,7 +7049,7 @@
     <t>Халк</t>
   </si>
   <si>
-    <t>4 ч. 27 мин. 4 сек.</t>
+    <t>4 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>845–848</t>
@@ -7070,7 +7070,7 @@
     <t>Savitri</t>
   </si>
   <si>
-    <t>7 ч. 7 мин. 48 сек.</t>
+    <t>7 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>Yelisey</t>
@@ -7091,13 +7091,13 @@
     <t>BlaZe_RoX</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 59 сек.</t>
+    <t>3 ч. 07 мин. 59 сек.</t>
   </si>
   <si>
     <t>neophyte</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 8 сек.</t>
+    <t>6 ч. 02 мин. 08 сек.</t>
   </si>
   <si>
     <t>Starmeh</t>
@@ -7109,13 +7109,13 @@
     <t>oligarh83</t>
   </si>
   <si>
-    <t>3 ч. 51 мин. 1 сек.</t>
+    <t>3 ч. 51 мин. 01 сек.</t>
   </si>
   <si>
     <t>IamCrazy</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 47 сек.</t>
+    <t>4 ч. 01 мин. 47 сек.</t>
   </si>
   <si>
     <t>855–856</t>
@@ -7175,7 +7175,7 @@
     <t>__TEMA__</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 41 сек.</t>
+    <t>4 ч. 04 мин. 41 сек.</t>
   </si>
   <si>
     <t>0beron</t>
@@ -7241,7 +7241,7 @@
     <t>Schoolboy</t>
   </si>
   <si>
-    <t>3 ч. 16 мин. 6 сек.</t>
+    <t>3 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>Voronov</t>
@@ -7262,7 +7262,7 @@
     <t>TSI</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 17 сек.</t>
+    <t>3 ч. 08 мин. 17 сек.</t>
   </si>
   <si>
     <t>ikluchva</t>
@@ -7292,7 +7292,7 @@
     <t>Tenfrow</t>
   </si>
   <si>
-    <t>4 ч. 27 мин. 5 сек.</t>
+    <t>4 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>CalvinCandy</t>
@@ -7322,7 +7322,7 @@
     <t>KiD2</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 4 сек.</t>
+    <t>3 ч. 20 мин. 04 сек.</t>
   </si>
   <si>
     <t>883</t>
@@ -7340,7 +7340,7 @@
     <t>Alex123451</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 1 сек.</t>
+    <t>2 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>ШвеТка</t>
@@ -7358,7 +7358,7 @@
     <t>_Nicole_</t>
   </si>
   <si>
-    <t>2 ч. 43 мин. 8 сек.</t>
+    <t>2 ч. 43 мин. 08 сек.</t>
   </si>
   <si>
     <t>888–890</t>
@@ -7403,13 +7403,13 @@
     <t>lesnoysnip</t>
   </si>
   <si>
-    <t>4 ч. 17 мин. 7 сек.</t>
+    <t>4 ч. 17 мин. 07 сек.</t>
   </si>
   <si>
     <t>Кросафчег</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 43 сек.</t>
+    <t>3 ч. 02 мин. 43 сек.</t>
   </si>
   <si>
     <t>895–897</t>
@@ -7430,7 +7430,7 @@
     <t>Prodrive</t>
   </si>
   <si>
-    <t>3 ч. 31 мин. 0 сек.</t>
+    <t>3 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>898–900</t>
@@ -7460,7 +7460,7 @@
     <t>Pavellum</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 5 сек.</t>
+    <t>3 ч. 20 мин. 05 сек.</t>
   </si>
   <si>
     <t>Mister_Finka</t>
@@ -7502,7 +7502,7 @@
     <t>HellBoy33</t>
   </si>
   <si>
-    <t>3 ч. 35 мин. 6 сек.</t>
+    <t>3 ч. 35 мин. 06 сек.</t>
   </si>
   <si>
     <t>dogs_life</t>
@@ -7580,7 +7580,7 @@
     <t>kernal_debuger</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 16 сек.</t>
+    <t>3 ч. 03 мин. 16 сек.</t>
   </si>
   <si>
     <t>920</t>
@@ -7589,7 +7589,7 @@
     <t>aimpu</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 2 сек.</t>
+    <t>4 ч. 03 мин. 02 сек.</t>
   </si>
   <si>
     <t>921–923</t>
@@ -7598,7 +7598,7 @@
     <t>MyxaMopxD</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 0 сек.</t>
+    <t>2 ч. 46 мин. 00 сек.</t>
   </si>
   <si>
     <t>Дима_Катран</t>
@@ -7619,7 +7619,7 @@
     <t>_Snezhinka_</t>
   </si>
   <si>
-    <t>3 ч. 21 мин. 2 сек.</t>
+    <t>3 ч. 21 мин. 02 сек.</t>
   </si>
   <si>
     <t>925–927</t>
@@ -7628,7 +7628,7 @@
     <t>Kalyn-Davis</t>
   </si>
   <si>
-    <t>4 ч. 30 мин. 1 сек.</t>
+    <t>4 ч. 30 мин. 01 сек.</t>
   </si>
   <si>
     <t>snow</t>
@@ -7649,7 +7649,7 @@
     <t>python_py</t>
   </si>
   <si>
-    <t>5 ч. 47 мин. 7 сек.</t>
+    <t>5 ч. 47 мин. 07 сек.</t>
   </si>
   <si>
     <t>Пиллигримм</t>
@@ -7754,7 +7754,7 @@
     <t>Racer729</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 57 сек.</t>
+    <t>3 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>Гегемон</t>
@@ -7835,7 +7835,7 @@
     <t>NinaVladi</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 34 сек.</t>
+    <t>3 ч. 09 мин. 34 сек.</t>
   </si>
   <si>
     <t>Harra</t>
@@ -7847,7 +7847,7 @@
     <t>nikit</t>
   </si>
   <si>
-    <t>4 ч. 46 мин. 0 сек.</t>
+    <t>4 ч. 46 мин. 00 сек.</t>
   </si>
   <si>
     <t>957–960</t>
@@ -7874,7 +7874,7 @@
     <t>azyl</t>
   </si>
   <si>
-    <t>4 ч. 40 мин. 0 сек.</t>
+    <t>4 ч. 40 мин. 00 сек.</t>
   </si>
   <si>
     <t>961</t>
@@ -7922,7 +7922,7 @@
     <t>AspoD</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 53 сек.</t>
+    <t>3 ч. 07 мин. 53 сек.</t>
   </si>
   <si>
     <t>967–971</t>
@@ -7949,7 +7949,7 @@
     <t>volo_volare</t>
   </si>
   <si>
-    <t>3 ч. 14 мин. 9 сек.</t>
+    <t>3 ч. 14 мин. 09 сек.</t>
   </si>
   <si>
     <t>FAUst_</t>
@@ -7964,7 +7964,7 @@
     <t>TwinDenis</t>
   </si>
   <si>
-    <t>2 ч. 57 мин. 8 сек.</t>
+    <t>2 ч. 57 мин. 08 сек.</t>
   </si>
   <si>
     <t>973–975</t>
@@ -8018,13 +8018,13 @@
     <t>ReadySteadyGo_</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 1 сек.</t>
+    <t>2 ч. 30 мин. 01 сек.</t>
   </si>
   <si>
     <t>4ick</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 6 сек.</t>
+    <t>2 ч. 23 мин. 06 сек.</t>
   </si>
   <si>
     <t>981–983</t>
@@ -8039,7 +8039,7 @@
     <t>Etoneja</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 1 сек.</t>
+    <t>2 ч. 40 мин. 01 сек.</t>
   </si>
   <si>
     <t>fanasique</t>
@@ -8063,7 +8063,7 @@
     <t>nama</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 34 сек.</t>
+    <t>3 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>987–988</t>
@@ -8207,7 +8207,7 @@
     <t>Коретай</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 9 сек.</t>
+    <t>2 ч. 00 мин. 09 сек.</t>
   </si>
   <si>
     <t>lmyafa</t>
@@ -8222,7 +8222,7 @@
     <t>Zoomskij</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 36 сек.</t>
+    <t>3 ч. 08 мин. 36 сек.</t>
   </si>
   <si>
     <t>1008–1012</t>
@@ -8237,7 +8237,7 @@
     <t>Книголюб</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 10 сек.</t>
+    <t>4 ч. 00 мин. 10 сек.</t>
   </si>
   <si>
     <t>яПанацея</t>
@@ -8264,7 +8264,7 @@
     <t>Tarantul</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 7 сек.</t>
+    <t>2 ч. 54 мин. 07 сек.</t>
   </si>
   <si>
     <t>Krokodil</t>
@@ -8303,13 +8303,13 @@
     <t>apchhi</t>
   </si>
   <si>
-    <t>4 ч. 41 мин. 6 сек.</t>
+    <t>4 ч. 41 мин. 06 сек.</t>
   </si>
   <si>
     <t>denver14</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 50 сек.</t>
+    <t>3 ч. 04 мин. 50 сек.</t>
   </si>
   <si>
     <t>1021–1025</t>
@@ -8372,7 +8372,7 @@
     <t>АСкворешня-Мчит</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 47 сек.</t>
+    <t>5 ч. 05 мин. 47 сек.</t>
   </si>
   <si>
     <t>_NoMaD_</t>
@@ -8399,7 +8399,7 @@
     <t>lazy</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 16 сек.</t>
+    <t>2 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>1034–1035</t>
@@ -8414,7 +8414,7 @@
     <t>Яня</t>
   </si>
   <si>
-    <t>3 ч. 19 мин. 7 сек.</t>
+    <t>3 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>1036–1040</t>
@@ -8423,13 +8423,13 @@
     <t>UnoMaster</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 25 сек.</t>
+    <t>3 ч. 07 мин. 25 сек.</t>
   </si>
   <si>
     <t>Спелый</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 0 сек.</t>
+    <t>4 ч. 10 мин. 00 сек.</t>
   </si>
   <si>
     <t>a1101x</t>
@@ -8510,13 +8510,13 @@
     <t>ArtIntel</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 21 сек.</t>
+    <t>3 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>Pastor_nak</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 36 сек.</t>
+    <t>2 ч. 01 мин. 36 сек.</t>
   </si>
   <si>
     <t>1051–1052</t>
@@ -8540,7 +8540,7 @@
     <t>Hei5</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 27 сек.</t>
+    <t>4 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>Тоха</t>
@@ -8567,7 +8567,7 @@
     <t>ВАТ</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 51 сек.</t>
+    <t>4 ч. 03 мин. 51 сек.</t>
   </si>
   <si>
     <t>3a17ad10</t>
@@ -8597,7 +8597,7 @@
     <t>Gil_ru</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 21 сек.</t>
+    <t>2 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>1062–1064</t>
@@ -8606,13 +8606,13 @@
     <t>nastyke</t>
   </si>
   <si>
-    <t>3 ч. 25 мин. 1 сек.</t>
+    <t>3 ч. 25 мин. 01 сек.</t>
   </si>
   <si>
     <t>петрови4</t>
   </si>
   <si>
-    <t>2 ч. 25 мин. 8 сек.</t>
+    <t>2 ч. 25 мин. 08 сек.</t>
   </si>
   <si>
     <t>Ladimir</t>
@@ -8633,7 +8633,7 @@
     <t>massa</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 14 сек.</t>
+    <t>4 ч. 08 мин. 14 сек.</t>
   </si>
   <si>
     <t>1067</t>
@@ -8651,13 +8651,13 @@
     <t>g0d1o</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 4 сек.</t>
+    <t>2 ч. 50 мин. 04 сек.</t>
   </si>
   <si>
     <t>Speed_King</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 1 сек.</t>
+    <t>3 ч. 34 мин. 01 сек.</t>
   </si>
   <si>
     <t>stressart</t>
@@ -8720,7 +8720,7 @@
     <t>lornashore</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 0 сек.</t>
+    <t>2 ч. 29 мин. 00 сек.</t>
   </si>
   <si>
     <t>dymasd</t>
@@ -8732,7 +8732,7 @@
     <t>savaggge</t>
   </si>
   <si>
-    <t>2 ч. 41 мин. 4 сек.</t>
+    <t>2 ч. 41 мин. 04 сек.</t>
   </si>
   <si>
     <t>1081–1083</t>
@@ -8870,7 +8870,7 @@
     <t>Paloma</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 16 сек.</t>
+    <t>5 ч. 04 мин. 16 сек.</t>
   </si>
   <si>
     <t>1101–1105</t>
@@ -8879,7 +8879,7 @@
     <t>ps1501</t>
   </si>
   <si>
-    <t>3 ч. 53 мин. 5 сек.</t>
+    <t>3 ч. 53 мин. 05 сек.</t>
   </si>
   <si>
     <t>МОТОРНЫЙ</t>
@@ -8891,7 +8891,7 @@
     <t>Fuuruub</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 22 сек.</t>
+    <t>3 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>TIAexp</t>
@@ -8927,7 +8927,7 @@
     <t>liuluil</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 8 сек.</t>
+    <t>1 ч. 55 мин. 08 сек.</t>
   </si>
   <si>
     <t>Jenyok</t>
@@ -8954,13 +8954,13 @@
     <t>Порядок</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 6 сек.</t>
+    <t>2 ч. 10 мин. 06 сек.</t>
   </si>
   <si>
     <t>Pechalnik-U</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 7 сек.</t>
+    <t>2 ч. 26 мин. 07 сек.</t>
   </si>
   <si>
     <t>Youpiter</t>
@@ -8981,7 +8981,7 @@
     <t>Massik</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 51 сек.</t>
+    <t>2 ч. 01 мин. 51 сек.</t>
   </si>
   <si>
     <t>grimax</t>
@@ -9020,13 +9020,13 @@
     <t>vogoniu</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 38 сек.</t>
+    <t>6 ч. 03 мин. 38 сек.</t>
   </si>
   <si>
     <t>hrenovaya_klava</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 3 сек.</t>
+    <t>2 ч. 35 мин. 03 сек.</t>
   </si>
   <si>
     <t>1125–1130</t>
@@ -9035,19 +9035,19 @@
     <t>kochtaik</t>
   </si>
   <si>
-    <t>3 ч. 52 мин. 4 сек.</t>
+    <t>3 ч. 52 мин. 04 сек.</t>
   </si>
   <si>
     <t>tryme</t>
   </si>
   <si>
-    <t>1 ч. 19 мин. 0 сек.</t>
+    <t>1 ч. 19 мин. 00 сек.</t>
   </si>
   <si>
     <t>Pupupuprum</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 9 сек.</t>
+    <t>1 ч. 55 мин. 09 сек.</t>
   </si>
   <si>
     <t>Lanskay</t>
@@ -9065,7 +9065,7 @@
     <t>ant1k</t>
   </si>
   <si>
-    <t>1 ч. 48 мин. 7 сек.</t>
+    <t>1 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>1131–1132</t>
@@ -9089,13 +9089,13 @@
     <t>Capr</t>
   </si>
   <si>
-    <t>3 ч. 30 мин. 7 сек.</t>
+    <t>3 ч. 30 мин. 07 сек.</t>
   </si>
   <si>
     <t>Meteora277</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 22 сек.</t>
+    <t>2 ч. 03 мин. 22 сек.</t>
   </si>
   <si>
     <t>EVGENIY1</t>
@@ -9125,7 +9125,7 @@
     <t>Топтыгин</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 29 сек.</t>
+    <t>2 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>vostok_57</t>
@@ -9164,13 +9164,13 @@
     <t>lana-banana</t>
   </si>
   <si>
-    <t>2 ч. 32 мин. 3 сек.</t>
+    <t>2 ч. 32 мин. 03 сек.</t>
   </si>
   <si>
     <t>usernm</t>
   </si>
   <si>
-    <t>3 ч. 26 мин. 0 сек.</t>
+    <t>3 ч. 26 мин. 00 сек.</t>
   </si>
   <si>
     <t>1146–1147</t>
@@ -9194,7 +9194,7 @@
     <t>Фиксик</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 19 сек.</t>
+    <t>4 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>1149–1153</t>
@@ -9203,7 +9203,7 @@
     <t>TuzemooN</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 52 сек.</t>
+    <t>3 ч. 08 мин. 52 сек.</t>
   </si>
   <si>
     <t>Denis-F</t>
@@ -9227,7 +9227,7 @@
     <t>RombOs</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 36 сек.</t>
+    <t>2 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>1154–1155</t>
@@ -9236,7 +9236,7 @@
     <t>Garmonica</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 38 сек.</t>
+    <t>2 ч. 04 мин. 38 сек.</t>
   </si>
   <si>
     <t>Headmast</t>
@@ -9251,7 +9251,7 @@
     <t>dermodemon</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 1 сек.</t>
+    <t>4 ч. 10 мин. 01 сек.</t>
   </si>
   <si>
     <t>rari</t>
@@ -9260,13 +9260,13 @@
     <t>Iva_</t>
   </si>
   <si>
-    <t>3 ч. 16 мин. 0 сек.</t>
+    <t>3 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>Caterpillar</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 4 сек.</t>
+    <t>3 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>eImage</t>
@@ -9281,13 +9281,13 @@
     <t>Milker</t>
   </si>
   <si>
-    <t>2 ч. 18 мин. 2 сек.</t>
+    <t>2 ч. 18 мин. 02 сек.</t>
   </si>
   <si>
     <t>nata-natusechka</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 10 сек.</t>
+    <t>3 ч. 03 мин. 10 сек.</t>
   </si>
   <si>
     <t>1163–1166</t>
@@ -9296,7 +9296,7 @@
     <t>zapletayka</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 0 сек.</t>
+    <t>3 ч. 07 мин. 00 сек.</t>
   </si>
   <si>
     <t>PROFI</t>
@@ -9341,7 +9341,7 @@
     <t>-Vovik-</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 4 сек.</t>
+    <t>2 ч. 29 мин. 04 сек.</t>
   </si>
   <si>
     <t>RandomDude</t>
@@ -9353,13 +9353,13 @@
     <t>Кусака</t>
   </si>
   <si>
-    <t>2 ч. 11 мин. 3 сек.</t>
+    <t>2 ч. 11 мин. 03 сек.</t>
   </si>
   <si>
     <t>GGHFGL</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 2 сек.</t>
+    <t>1 ч. 55 мин. 02 сек.</t>
   </si>
   <si>
     <t>vulp</t>
@@ -9377,7 +9377,7 @@
     <t>dim4ik11</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 1 сек.</t>
+    <t>3 ч. 33 мин. 01 сек.</t>
   </si>
   <si>
     <t>alex_sunny</t>
@@ -9389,7 +9389,7 @@
     <t>JumpT</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 0 сек.</t>
+    <t>2 ч. 33 мин. 00 сек.</t>
   </si>
   <si>
     <t>ешта</t>
@@ -9437,13 +9437,13 @@
     <t>Ллисса</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 0 сек.</t>
+    <t>2 ч. 07 мин. 00 сек.</t>
   </si>
   <si>
     <t>Татуяна</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 58 сек.</t>
+    <t>4 ч. 04 мин. 58 сек.</t>
   </si>
   <si>
     <t>Easy_Rider</t>
@@ -9464,13 +9464,13 @@
     <t>espresso</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 59 сек.</t>
+    <t>2 ч. 07 мин. 59 сек.</t>
   </si>
   <si>
     <t>TwinDima</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 9 сек.</t>
+    <t>1 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>dbrnjhbz</t>
@@ -9482,7 +9482,7 @@
     <t>Бросай_курить</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 40 сек.</t>
+    <t>2 ч. 00 мин. 40 сек.</t>
   </si>
   <si>
     <t>1193–1197</t>
@@ -9497,13 +9497,13 @@
     <t>lusisha</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 12 сек.</t>
+    <t>4 ч. 01 мин. 12 сек.</t>
   </si>
   <si>
     <t>Sketerok777</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 9 сек.</t>
+    <t>2 ч. 01 мин. 09 сек.</t>
   </si>
   <si>
     <t>_Lazer_</t>
@@ -9515,7 +9515,7 @@
     <t>novkostya</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 56 сек.</t>
+    <t>2 ч. 01 мин. 56 сек.</t>
   </si>
   <si>
     <t>1198–1203</t>
@@ -9530,7 +9530,7 @@
     <t>IRISCHKA</t>
   </si>
   <si>
-    <t>4 ч. 33 мин. 4 сек.</t>
+    <t>4 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>Ksano</t>
@@ -9593,7 +9593,7 @@
     <t>Kyler33</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 38 сек.</t>
+    <t>2 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>_Mira_</t>
@@ -9605,7 +9605,7 @@
     <t>Дядя_Грга</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 8 сек.</t>
+    <t>1 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>imac</t>
@@ -9626,7 +9626,7 @@
     <t>ajka616</t>
   </si>
   <si>
-    <t>4 ч. 11 мин. 6 сек.</t>
+    <t>4 ч. 11 мин. 06 сек.</t>
   </si>
   <si>
     <t>1215–1219</t>
@@ -9635,7 +9635,7 @@
     <t>V_Alexey</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 19 сек.</t>
+    <t>2 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>TigArt</t>
@@ -9650,13 +9650,13 @@
     <t>FreeBooter</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 54 сек.</t>
+    <t>3 ч. 01 мин. 54 сек.</t>
   </si>
   <si>
     <t>Journeyman</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 10 сек.</t>
+    <t>2 ч. 06 мин. 10 сек.</t>
   </si>
   <si>
     <t>1220–1223</t>
@@ -9665,19 +9665,19 @@
     <t>jriynik2312</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 11 сек.</t>
+    <t>3 ч. 00 мин. 11 сек.</t>
   </si>
   <si>
     <t>gevis</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 38 сек.</t>
+    <t>3 ч. 01 мин. 38 сек.</t>
   </si>
   <si>
     <t>unknown_error</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 17 сек.</t>
+    <t>3 ч. 01 мин. 17 сек.</t>
   </si>
   <si>
     <t>Интересующийся</t>
@@ -9692,7 +9692,7 @@
     <t>ASplayer9119</t>
   </si>
   <si>
-    <t>1 ч. 56 мин. 4 сек.</t>
+    <t>1 ч. 56 мин. 04 сек.</t>
   </si>
   <si>
     <t>1225–1226</t>
@@ -9716,7 +9716,7 @@
     <t>Андрей-Мск</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 56 сек.</t>
+    <t>3 ч. 05 мин. 56 сек.</t>
   </si>
   <si>
     <t>Vesna2011</t>
@@ -9731,7 +9731,7 @@
     <t>nikita25</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 23 сек.</t>
+    <t>3 ч. 01 мин. 23 сек.</t>
   </si>
   <si>
     <t>Chedi</t>
@@ -9755,7 +9755,7 @@
     <t>Клавишник</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 9 сек.</t>
+    <t>2 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>1234–1236</t>
@@ -9803,7 +9803,7 @@
     <t>ryx</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 25 сек.</t>
+    <t>2 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>sorax</t>
@@ -9830,7 +9830,7 @@
     <t>БурячОК</t>
   </si>
   <si>
-    <t>2 ч. 44 мин. 7 сек.</t>
+    <t>2 ч. 44 мин. 07 сек.</t>
   </si>
   <si>
     <t>tmpd</t>
@@ -9842,7 +9842,7 @@
     <t>Bax</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 5 сек.</t>
+    <t>2 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>ZILYA</t>
@@ -9857,13 +9857,13 @@
     <t>mmque</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 8 сек.</t>
+    <t>1 ч. 53 мин. 08 сек.</t>
   </si>
   <si>
     <t>RealWizZard</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 3 сек.</t>
+    <t>1 ч. 15 мин. 03 сек.</t>
   </si>
   <si>
     <t>zhurauliou89</t>
@@ -9899,7 +9899,7 @@
     <t>klap</t>
   </si>
   <si>
-    <t>1 ч. 47 мин. 2 сек.</t>
+    <t>1 ч. 47 мин. 02 сек.</t>
   </si>
   <si>
     <t>1256–1259</t>
@@ -9914,7 +9914,7 @@
     <t>Sergunya87</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 4 сек.</t>
+    <t>1 ч. 46 мин. 04 сек.</t>
   </si>
   <si>
     <t>Vlados_</t>
@@ -9935,7 +9935,7 @@
     <t>Суоно</t>
   </si>
   <si>
-    <t>2 ч. 22 мин. 9 сек.</t>
+    <t>2 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>cheech</t>
@@ -9950,7 +9950,7 @@
     <t>foreword92</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 8 сек.</t>
+    <t>2 ч. 02 мин. 08 сек.</t>
   </si>
   <si>
     <t>flebushe</t>
@@ -9971,13 +9971,13 @@
     <t>denchi</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 0 сек.</t>
+    <t>2 ч. 24 мин. 00 сек.</t>
   </si>
   <si>
     <t>bolgarinpavel</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 17 сек.</t>
+    <t>2 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>tomplier</t>
@@ -9998,7 +9998,7 @@
     <t>cal-lek</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 31 сек.</t>
+    <t>2 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>Deleted</t>
@@ -10025,7 +10025,7 @@
     <t>_amateur</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 1 сек.</t>
+    <t>2 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>DaniilG</t>
@@ -10037,7 +10037,7 @@
     <t>DcDimon</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 46 сек.</t>
+    <t>2 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>шиза-мэн</t>
@@ -10070,7 +10070,7 @@
     <t>belkaoboroten</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 23 сек.</t>
+    <t>2 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>1281–1284</t>
@@ -10079,7 +10079,7 @@
     <t>Гришка_конокрад</t>
   </si>
   <si>
-    <t>2 ч. 32 мин. 6 сек.</t>
+    <t>2 ч. 32 мин. 06 сек.</t>
   </si>
   <si>
     <t>Feils</t>
@@ -10097,7 +10097,7 @@
     <t>benighted</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 19 сек.</t>
+    <t>2 ч. 03 мин. 19 сек.</t>
   </si>
   <si>
     <t>1285–1292</t>
@@ -10139,7 +10139,7 @@
     <t>Iskariot</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 43 сек.</t>
+    <t>2 ч. 09 мин. 43 сек.</t>
   </si>
   <si>
     <t>Радончег</t>
@@ -10166,7 +10166,7 @@
     <t>schkiel</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 10 сек.</t>
+    <t>3 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>fabulaspb</t>
@@ -10178,13 +10178,13 @@
     <t>master-blaster</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 52 сек.</t>
+    <t>3 ч. 06 мин. 52 сек.</t>
   </si>
   <si>
     <t>MightySan</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 30 сек.</t>
+    <t>2 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>1299–1303</t>
@@ -10211,7 +10211,7 @@
     <t>madar</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 12 сек.</t>
+    <t>2 ч. 03 мин. 12 сек.</t>
   </si>
   <si>
     <t>zoccolo</t>
@@ -10226,7 +10226,7 @@
     <t>logickiller</t>
   </si>
   <si>
-    <t>2 ч. 15 мин. 7 сек.</t>
+    <t>2 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>1305–1311</t>
@@ -10292,7 +10292,7 @@
     <t>Мим</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 59 сек.</t>
+    <t>2 ч. 03 мин. 59 сек.</t>
   </si>
   <si>
     <t>bancir</t>
@@ -10304,7 +10304,7 @@
     <t>SemRunner</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 5 сек.</t>
+    <t>1 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>1317–1320</t>
@@ -10331,7 +10331,7 @@
     <t>Капитанки</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 9 сек.</t>
+    <t>2 ч. 06 мин. 09 сек.</t>
   </si>
   <si>
     <t>1321–1323</t>
@@ -10388,13 +10388,13 @@
     <t>l_y_n_x</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 20 сек.</t>
+    <t>2 ч. 08 мин. 20 сек.</t>
   </si>
   <si>
     <t>Skillmic</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 49 сек.</t>
+    <t>2 ч. 02 мин. 49 сек.</t>
   </si>
   <si>
     <t>1331–1336</t>
@@ -10490,7 +10490,7 @@
     <t>xopoc79</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 0 сек.</t>
+    <t>2 ч. 40 мин. 00 сек.</t>
   </si>
   <si>
     <t>Димас</t>
@@ -10517,7 +10517,7 @@
     <t>kibico</t>
   </si>
   <si>
-    <t>1 ч. 56 мин. 7 сек.</t>
+    <t>1 ч. 56 мин. 07 сек.</t>
   </si>
   <si>
     <t>Den4ikDeka</t>
@@ -10592,7 +10592,7 @@
     <t>kostyagordyaev</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 10 сек.</t>
+    <t>2 ч. 04 мин. 10 сек.</t>
   </si>
   <si>
     <t>ASerS</t>
@@ -10619,25 +10619,25 @@
     <t>Alekeks</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 46 сек.</t>
+    <t>2 ч. 06 мин. 46 сек.</t>
   </si>
   <si>
     <t>Grinn</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 0 сек.</t>
+    <t>1 ч. 22 мин. 00 сек.</t>
   </si>
   <si>
     <t>mantilet</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 59 сек.</t>
+    <t>2 ч. 01 мин. 59 сек.</t>
   </si>
   <si>
     <t>Dialex</t>
   </si>
   <si>
-    <t>1 ч. 54 мин. 5 сек.</t>
+    <t>1 ч. 54 мин. 05 сек.</t>
   </si>
   <si>
     <t>1370–1373</t>
@@ -10664,7 +10664,7 @@
     <t>hoha-</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 58 сек.</t>
+    <t>2 ч. 06 мин. 58 сек.</t>
   </si>
   <si>
     <t>1374–1377</t>
@@ -10733,13 +10733,13 @@
     <t>pikwik</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 27 сек.</t>
+    <t>3 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>VSH</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 36 сек.</t>
+    <t>2 ч. 04 мин. 36 сек.</t>
   </si>
   <si>
     <t>Димитр</t>
@@ -10760,13 +10760,13 @@
     <t>damir27</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 6 сек.</t>
+    <t>1 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>Dimanus</t>
   </si>
   <si>
-    <t>1 ч. 51 мин. 7 сек.</t>
+    <t>1 ч. 51 мин. 07 сек.</t>
   </si>
   <si>
     <t>Smalllynx</t>
@@ -10778,7 +10778,7 @@
     <t>nezemlyanin</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 8 сек.</t>
+    <t>1 ч. 59 мин. 08 сек.</t>
   </si>
   <si>
     <t>imd54</t>
@@ -10793,7 +10793,7 @@
     <t>OverPower</t>
   </si>
   <si>
-    <t>3 ч. 28 мин. 0 сек.</t>
+    <t>3 ч. 28 мин. 00 сек.</t>
   </si>
   <si>
     <t>Живой</t>
@@ -10805,7 +10805,7 @@
     <t>nickliverpool</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 21 сек.</t>
+    <t>2 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>Scarpion</t>
@@ -10823,7 +10823,7 @@
     <t>notebukman</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 43 сек.</t>
+    <t>2 ч. 02 мин. 43 сек.</t>
   </si>
   <si>
     <t>1399–1411</t>
@@ -10850,13 +10850,13 @@
     <t>Likuku</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 2 сек.</t>
+    <t>2 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>Jstwrk</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 7 сек.</t>
+    <t>3 ч. 07 мин. 07 сек.</t>
   </si>
   <si>
     <t>sam09</t>
@@ -10868,13 +10868,13 @@
     <t>n1Riper</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 8 сек.</t>
+    <t>1 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>vova555</t>
   </si>
   <si>
-    <t>3 ч. 59 мин. 3 сек.</t>
+    <t>3 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>vokder</t>
@@ -10919,13 +10919,13 @@
     <t>malencaya</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 42 сек.</t>
+    <t>2 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>ElaS</t>
   </si>
   <si>
-    <t>1 ч. 49 мин. 8 сек.</t>
+    <t>1 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>FISCHER</t>
@@ -10952,19 +10952,19 @@
     <t>Hellki</t>
   </si>
   <si>
-    <t>2 ч. 20 мин. 2 сек.</t>
+    <t>2 ч. 20 мин. 02 сек.</t>
   </si>
   <si>
     <t>Reventon</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 38 сек.</t>
+    <t>1 ч. 01 мин. 38 сек.</t>
   </si>
   <si>
     <t>Doode</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 0 сек.</t>
+    <t>1 ч. 46 мин. 00 сек.</t>
   </si>
   <si>
     <t>1422–1425</t>
@@ -10991,7 +10991,7 @@
     <t>SilverNeko</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 4 сек.</t>
+    <t>2 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>1426–1429</t>
@@ -11000,19 +11000,19 @@
     <t>vostok72</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 31 сек.</t>
+    <t>6 ч. 07 мин. 31 сек.</t>
   </si>
   <si>
     <t>19rus</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 1 сек.</t>
+    <t>1 ч. 40 мин. 01 сек.</t>
   </si>
   <si>
     <t>Классик</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 4 сек.</t>
+    <t>1 ч. 41 мин. 04 сек.</t>
   </si>
   <si>
     <t>Dronezzz18</t>
@@ -11027,7 +11027,7 @@
     <t>Raptors</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 33 сек.</t>
+    <t>3 ч. 06 мин. 33 сек.</t>
   </si>
   <si>
     <t>ilya_138</t>
@@ -11075,13 +11075,13 @@
     <t>DM-x</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 9 сек.</t>
+    <t>2 ч. 08 мин. 09 сек.</t>
   </si>
   <si>
     <t>lexx2111</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 3 сек.</t>
+    <t>2 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>__Гость_</t>
@@ -11093,7 +11093,7 @@
     <t>nat67</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 3 сек.</t>
+    <t>1 ч. 18 мин. 03 сек.</t>
   </si>
   <si>
     <t>1442–1450</t>
@@ -11102,7 +11102,7 @@
     <t>bonin</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 57 сек.</t>
+    <t>2 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>ильу</t>
@@ -11111,13 +11111,13 @@
     <t>Лелюгри</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 8 сек.</t>
+    <t>2 ч. 05 мин. 08 сек.</t>
   </si>
   <si>
     <t>Lunaries</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 26 сек.</t>
+    <t>2 ч. 01 мин. 26 сек.</t>
   </si>
   <si>
     <t>Nexuspro</t>
@@ -11189,7 +11189,7 @@
     <t>Питер</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 0 сек.</t>
+    <t>1 ч. 20 мин. 00 сек.</t>
   </si>
   <si>
     <t>velocipede</t>
@@ -11207,7 +11207,7 @@
     <t>robert_debauch</t>
   </si>
   <si>
-    <t>1 ч. 19 мин. 1 сек.</t>
+    <t>1 ч. 19 мин. 01 сек.</t>
   </si>
   <si>
     <t>КлавоЛом</t>
@@ -11225,7 +11225,7 @@
     <t>DimaRoot</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 10 сек.</t>
+    <t>3 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>albertcoin</t>
@@ -11237,7 +11237,7 @@
     <t>Kharinsky</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 4 сек.</t>
+    <t>1 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>1466–1471</t>
@@ -11276,7 +11276,7 @@
     <t>Sej</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 5 сек.</t>
+    <t>2 ч. 09 мин. 05 сек.</t>
   </si>
   <si>
     <t>1472–1474</t>
@@ -11321,13 +11321,13 @@
     <t>ksundel</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 16 сек.</t>
+    <t>2 ч. 03 мин. 16 сек.</t>
   </si>
   <si>
     <t>GYRTOVOY</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 5 сек.</t>
+    <t>2 ч. 23 мин. 05 сек.</t>
   </si>
   <si>
     <t>1480–1483</t>
@@ -11348,13 +11348,13 @@
     <t>_aggel</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 5 сек.</t>
+    <t>1 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>Collider</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 3 сек.</t>
+    <t>2 ч. 06 мин. 03 сек.</t>
   </si>
   <si>
     <t>1484–1492</t>
@@ -11420,7 +11420,7 @@
     <t>GhostInside</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 7 сек.</t>
+    <t>1 ч. 24 мин. 07 сек.</t>
   </si>
   <si>
     <t>js_evropa</t>
@@ -11438,7 +11438,7 @@
     <t>karabashka</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 54 сек.</t>
+    <t>2 ч. 07 мин. 54 сек.</t>
   </si>
   <si>
     <t>1497–1504</t>
@@ -11465,7 +11465,7 @@
     <t>__мутя__</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 22 сек.</t>
+    <t>2 ч. 01 мин. 22 сек.</t>
   </si>
   <si>
     <t>felicia_</t>
@@ -11483,7 +11483,7 @@
     <t>ness1</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 33 сек.</t>
+    <t>1 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>trion</t>
@@ -11510,7 +11510,7 @@
     <t>sanich123</t>
   </si>
   <si>
-    <t>1 ч. 19 мин. 6 сек.</t>
+    <t>1 ч. 19 мин. 06 сек.</t>
   </si>
   <si>
     <t>1508–1514</t>
@@ -11564,7 +11564,7 @@
     <t>Noob228</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 32 сек.</t>
+    <t>1 ч. 01 мин. 32 сек.</t>
   </si>
   <si>
     <t>Маркизик</t>
@@ -11576,7 +11576,7 @@
     <t>Торописька</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 53 сек.</t>
+    <t>1 ч. 01 мин. 53 сек.</t>
   </si>
   <si>
     <t>fantomazZ</t>
@@ -11603,7 +11603,7 @@
     <t>Хамелеон</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 57 сек.</t>
+    <t>1 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>Свинота</t>
@@ -11615,7 +11615,7 @@
     <t>MirZz</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 7 сек.</t>
+    <t>1 ч. 25 мин. 07 сек.</t>
   </si>
   <si>
     <t>warsergbk</t>
@@ -11654,7 +11654,7 @@
     <t>graticule</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 4 сек.</t>
+    <t>1 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>1531–1540</t>
@@ -11672,7 +11672,7 @@
     <t>SADPONY</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 51 сек.</t>
+    <t>1 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>anavatis</t>
@@ -11702,7 +11702,7 @@
     <t>adocs</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 2 сек.</t>
+    <t>1 ч. 40 мин. 02 сек.</t>
   </si>
   <si>
     <t>ленивец</t>
@@ -11729,7 +11729,7 @@
     <t>lovertone</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 8 сек.</t>
+    <t>1 ч. 16 мин. 08 сек.</t>
   </si>
   <si>
     <t>Julieta-nv</t>
@@ -11753,13 +11753,13 @@
     <t>Перфил</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 1 сек.</t>
+    <t>1 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>begemot98</t>
   </si>
   <si>
-    <t>1 ч. 39 мин. 6 сек.</t>
+    <t>1 ч. 39 мин. 06 сек.</t>
   </si>
   <si>
     <t>1548–1557</t>
@@ -11786,7 +11786,7 @@
     <t>уфхцщ</t>
   </si>
   <si>
-    <t>1 ч. 32 мин. 8 сек.</t>
+    <t>1 ч. 32 мин. 08 сек.</t>
   </si>
   <si>
     <t>AlexFer</t>
@@ -11831,7 +11831,7 @@
     <t>r0w</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 49 сек.</t>
+    <t>1 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>Гонибалл</t>
@@ -11855,7 +11855,7 @@
     <t>IVIVI</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 52 сек.</t>
+    <t>2 ч. 03 мин. 52 сек.</t>
   </si>
   <si>
     <t>EvilMachine</t>
@@ -11894,7 +11894,7 @@
     <t>dysphemia</t>
   </si>
   <si>
-    <t>1 ч. 13 мин. 7 сек.</t>
+    <t>1 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>i_vam98</t>
@@ -11906,13 +11906,13 @@
     <t>Bujhm99</t>
   </si>
   <si>
-    <t>2 ч. 25 мин. 3 сек.</t>
+    <t>2 ч. 25 мин. 03 сек.</t>
   </si>
   <si>
     <t>oless19</t>
   </si>
   <si>
-    <t>2 ч. 37 мин. 3 сек.</t>
+    <t>2 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>invector</t>
@@ -11960,7 +11960,7 @@
     <t>zdanhik</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 36 сек.</t>
+    <t>3 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>kalina70</t>
@@ -11990,7 +11990,7 @@
     <t>selunik</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 56 сек.</t>
+    <t>2 ч. 02 мин. 56 сек.</t>
   </si>
   <si>
     <t>1585–1594</t>
@@ -11999,7 +11999,7 @@
     <t>ulitkamix</t>
   </si>
   <si>
-    <t>1 ч. 38 мин. 1 сек.</t>
+    <t>1 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>Alex2016</t>
@@ -12029,7 +12029,7 @@
     <t>Andorian</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 3 сек.</t>
+    <t>5 ч. 06 мин. 03 сек.</t>
   </si>
   <si>
     <t>Strider55</t>
@@ -12047,7 +12047,7 @@
     <t>ajrcbp</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 4 сек.</t>
+    <t>1 ч. 24 мин. 04 сек.</t>
   </si>
   <si>
     <t>Kolyuhin</t>
@@ -12068,13 +12068,13 @@
     <t>DaNeeRon</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 40 сек.</t>
+    <t>2 ч. 08 мин. 40 сек.</t>
   </si>
   <si>
     <t>map82_top</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 39 сек.</t>
+    <t>2 ч. 00 мин. 39 сек.</t>
   </si>
   <si>
     <t>Ra7en</t>
@@ -12116,13 +12116,13 @@
     <t>Пробудитесь_же</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 3 сек.</t>
+    <t>1 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>kirson45</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 51 сек.</t>
+    <t>2 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>1606–1617</t>
@@ -12131,7 +12131,7 @@
     <t>Тираэль</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 4 сек.</t>
+    <t>1 ч. 14 мин. 04 сек.</t>
   </si>
   <si>
     <t>InSh</t>
@@ -12152,13 +12152,13 @@
     <t>JPM</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 1 сек.</t>
+    <t>1 ч. 22 мин. 01 сек.</t>
   </si>
   <si>
     <t>salser_not</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 54 сек.</t>
+    <t>1 ч. 01 мин. 54 сек.</t>
   </si>
   <si>
     <t>lord_94</t>
@@ -12173,7 +12173,7 @@
     <t>Lien</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 7 сек.</t>
+    <t>1 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>Tulinych</t>
@@ -12185,7 +12185,7 @@
     <t>фио</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 50 сек.</t>
+    <t>2 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>1618–1623</t>
@@ -12194,7 +12194,7 @@
     <t>Papa_Wolf</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 6 сек.</t>
+    <t>1 ч. 22 мин. 06 сек.</t>
   </si>
   <si>
     <t>kasiveyser</t>
@@ -12263,7 +12263,7 @@
     <t>kitekatya</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 5 сек.</t>
+    <t>1 ч. 25 мин. 05 сек.</t>
   </si>
   <si>
     <t>Танитка</t>
@@ -12296,13 +12296,13 @@
     <t>Ishka</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 4 сек.</t>
+    <t>1 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>Dzihiko</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 2 сек.</t>
+    <t>1 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>skillup</t>
@@ -12314,7 +12314,7 @@
     <t>Фолко</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 40 сек.</t>
+    <t>1 ч. 03 мин. 40 сек.</t>
   </si>
   <si>
     <t>poupce842</t>
@@ -12332,7 +12332,7 @@
     <t>не_супермен</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 40 сек.</t>
+    <t>1 ч. 06 мин. 40 сек.</t>
   </si>
   <si>
     <t>Районный</t>
@@ -12374,13 +12374,13 @@
     <t>lector125</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 1 сек.</t>
+    <t>1 ч. 37 мин. 01 сек.</t>
   </si>
   <si>
     <t>Adgedan</t>
   </si>
   <si>
-    <t>2 ч. 39 мин. 0 сек.</t>
+    <t>2 ч. 39 мин. 00 сек.</t>
   </si>
   <si>
     <t>earthls</t>
@@ -12410,7 +12410,7 @@
     <t>k_e_n_t_a_v_r</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 45 сек.</t>
+    <t>1 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>Deacon</t>
@@ -12422,7 +12422,7 @@
     <t>Kisk</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 9 сек.</t>
+    <t>1 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>1657–1661</t>
@@ -12446,7 +12446,7 @@
     <t>Seyaua</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 10 сек.</t>
+    <t>1 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>Reecap</t>
@@ -12467,7 +12467,7 @@
     <t>vega-s</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 2 сек.</t>
+    <t>2 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>igorboroda</t>
@@ -12560,7 +12560,7 @@
     <t>meganoob</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 39 сек.</t>
+    <t>1 ч. 05 мин. 39 сек.</t>
   </si>
   <si>
     <t>1679–1691</t>
@@ -12581,7 +12581,7 @@
     <t>smol67</t>
   </si>
   <si>
-    <t>1 ч. 33 мин. 7 сек.</t>
+    <t>1 ч. 33 мин. 07 сек.</t>
   </si>
   <si>
     <t>HAN_DRA</t>
@@ -12605,7 +12605,7 @@
     <t>stc</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 33 сек.</t>
+    <t>1 ч. 01 мин. 33 сек.</t>
   </si>
   <si>
     <t>68Liss</t>
@@ -12668,7 +12668,7 @@
     <t>Divin1ty</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 38 сек.</t>
+    <t>1 ч. 06 мин. 38 сек.</t>
   </si>
   <si>
     <t>Тебятожка</t>
@@ -12686,7 +12686,7 @@
     <t>доползу</t>
   </si>
   <si>
-    <t>1 ч. 54 мин. 2 сек.</t>
+    <t>1 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>1699–1706</t>
@@ -12701,7 +12701,7 @@
     <t>qwAlxi</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 50 сек.</t>
+    <t>1 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>rayform</t>
@@ -12722,7 +12722,7 @@
     <t>Aletca</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 1 сек.</t>
+    <t>1 ч. 35 мин. 01 сек.</t>
   </si>
   <si>
     <t>1 ч. 50 мин. 12 сек.</t>
@@ -12770,7 +12770,7 @@
     <t>jamm</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 58 сек.</t>
+    <t>1 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>717171</t>
@@ -12785,7 +12785,7 @@
     <t>Silly_Sergio</t>
   </si>
   <si>
-    <t>1 ч. 12 мин. 6 сек.</t>
+    <t>1 ч. 12 мин. 06 сек.</t>
   </si>
   <si>
     <t>Klavius</t>
@@ -12800,7 +12800,7 @@
     <t>violetlux_</t>
   </si>
   <si>
-    <t>1 ч. 11 мин. 0 сек.</t>
+    <t>1 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>Anaxagoras</t>
@@ -12809,13 +12809,13 @@
     <t>sklippy</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 7 сек.</t>
+    <t>1 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>Enrage</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 29 сек.</t>
+    <t>1 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>непотомуль</t>
@@ -12827,7 +12827,7 @@
     <t>su-35</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 6 сек.</t>
+    <t>1 ч. 15 мин. 06 сек.</t>
   </si>
   <si>
     <t>Levskiy</t>
@@ -12878,7 +12878,7 @@
     <t>spawn_once</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 0 сек.</t>
+    <t>1 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>slv1</t>
@@ -12890,13 +12890,13 @@
     <t>tan9va</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 5 сек.</t>
+    <t>3 ч. 01 мин. 05 сек.</t>
   </si>
   <si>
     <t>Грубиян</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 4 сек.</t>
+    <t>1 ч. 25 мин. 04 сек.</t>
   </si>
   <si>
     <t>АняСВ</t>
@@ -12908,7 +12908,7 @@
     <t>Мятный_заход</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 21 сек.</t>
+    <t>1 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>4uva4ok</t>
@@ -12926,7 +12926,7 @@
     <t>Андрейка</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 53 сек.</t>
+    <t>1 ч. 06 мин. 53 сек.</t>
   </si>
   <si>
     <t>1739–1750</t>
@@ -12941,7 +12941,7 @@
     <t>Chuchpek</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 29 сек.</t>
+    <t>1 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>-анахата-</t>
@@ -12959,7 +12959,7 @@
     <t>dzheo_liliya</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 5 сек.</t>
+    <t>1 ч. 18 мин. 05 сек.</t>
   </si>
   <si>
     <t>Pill_Kates</t>
@@ -12971,7 +12971,7 @@
     <t>Aleksandeer</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 4 сек.</t>
+    <t>1 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>Sebastien</t>
@@ -12986,13 +12986,13 @@
     <t>дерик</t>
   </si>
   <si>
-    <t>1 ч. 33 мин. 9 сек.</t>
+    <t>1 ч. 33 мин. 09 сек.</t>
   </si>
   <si>
     <t>_-Brain-_</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 5 сек.</t>
+    <t>1 ч. 26 мин. 05 сек.</t>
   </si>
   <si>
     <t>sindek</t>
